--- a/VerbConjugation/XLSX/Trans.xlsx
+++ b/VerbConjugation/XLSX/Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1Wid6qZFUIaNGhhY-jObhH0MzMkW03Wt7/Teheran or general Persian Armenian/2021 kickstart /Archive/iranian_armenian/VerbConjugation/XLSX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FADFD4-5850-F84C-8CC5-D893423477A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B8A6B1-9179-EF43-9154-34D4C8B96FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="1040" windowWidth="28040" windowHeight="15760" xr2:uid="{8C910C20-26CF-4F4C-8ECA-0074B138AB3F}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15460" xr2:uid="{8C910C20-26CF-4F4C-8ECA-0074B138AB3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="3901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="3928">
   <si>
     <t>Class</t>
   </si>
@@ -11738,6 +11738,87 @@
   </si>
   <si>
     <t>t͡ʃʰəbɒt͡sʰɒv</t>
+  </si>
+  <si>
+    <t>to be worth</t>
+  </si>
+  <si>
+    <t>ɒɻʒem</t>
+  </si>
+  <si>
+    <t>{X} = ɒɻʒ-</t>
+  </si>
+  <si>
+    <t>ɒɻʒes</t>
+  </si>
+  <si>
+    <t>ɒɻʒi</t>
+  </si>
+  <si>
+    <t>ɒɻʒeŋkʰ</t>
+  </si>
+  <si>
+    <t>ɒɻʒekʰ</t>
+  </si>
+  <si>
+    <t>ɒɻʒen</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒem</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒes</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒi</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒeŋkʰ</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒekʰ</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒen</t>
+  </si>
+  <si>
+    <t>ɒɻʒim</t>
+  </si>
+  <si>
+    <t>ɒɻʒiɻ</t>
+  </si>
+  <si>
+    <t>ɒɻʒeɻ</t>
+  </si>
+  <si>
+    <t>ɒɻʒiŋkʰ</t>
+  </si>
+  <si>
+    <t>ɒɻʒikʰ</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒim</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒiɻ</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒeɻ</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒiŋkʰ</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒikʰ</t>
+  </si>
+  <si>
+    <t>t͡ʃʰəkɒjin</t>
+  </si>
+  <si>
+    <t>t͡ʃʰunin</t>
+  </si>
+  <si>
+    <t>t͡ʃʰɒɻʒin</t>
   </si>
 </sst>
 </file>
@@ -12096,15 +12177,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B2E37B-F385-654E-A14C-358148009A94}">
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="P10" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12178,7 +12259,7 @@
         <v>7</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>8</v>
@@ -12190,10 +12271,13 @@
         <v>8</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -12267,7 +12351,7 @@
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>8</v>
@@ -12279,10 +12363,13 @@
         <v>8</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -12356,13 +12443,13 @@
         <v>15</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>14</v>
@@ -12370,8 +12457,11 @@
       <c r="AC3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AD3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -12445,22 +12535,25 @@
         <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>3902</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -12534,22 +12627,25 @@
         <v>67</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>3901</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -12623,22 +12719,25 @@
         <v>95</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -12707,23 +12806,24 @@
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -12774,11 +12874,12 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
@@ -12830,8 +12931,9 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
@@ -12900,23 +13002,24 @@
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -12985,23 +13088,24 @@
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1" t="s">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>177</v>
       </c>
@@ -13070,23 +13174,24 @@
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>204</v>
       </c>
@@ -13155,23 +13260,24 @@
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
@@ -13240,23 +13346,24 @@
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>252</v>
       </c>
@@ -13325,23 +13432,24 @@
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>279</v>
       </c>
@@ -13410,23 +13518,24 @@
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>3737</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>3738</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>298</v>
       </c>
@@ -13500,22 +13609,25 @@
         <v>39</v>
       </c>
       <c r="Y17" s="1" t="s">
+        <v>3902</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>325</v>
       </c>
@@ -13589,22 +13701,25 @@
         <v>348</v>
       </c>
       <c r="Y18" s="1" t="s">
+        <v>3904</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>354</v>
       </c>
@@ -13678,22 +13793,25 @@
         <v>376</v>
       </c>
       <c r="Y19" s="1" t="s">
+        <v>3905</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>382</v>
       </c>
@@ -13767,22 +13885,25 @@
         <v>405</v>
       </c>
       <c r="Y20" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="Z20" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>411</v>
       </c>
@@ -13856,22 +13977,25 @@
         <v>434</v>
       </c>
       <c r="Y21" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>440</v>
       </c>
@@ -13945,22 +14069,25 @@
         <v>463</v>
       </c>
       <c r="Y22" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="Z22" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AB22" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>469</v>
       </c>
@@ -14034,22 +14161,25 @@
         <v>492</v>
       </c>
       <c r="Y23" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="Z23" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AC23" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>498</v>
       </c>
@@ -14123,22 +14253,25 @@
         <v>521</v>
       </c>
       <c r="Y24" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="Z24" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AC24" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>527</v>
       </c>
@@ -14212,22 +14345,25 @@
         <v>549</v>
       </c>
       <c r="Y25" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="Z25" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AB25" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AC25" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AD25" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>555</v>
       </c>
@@ -14301,22 +14437,25 @@
         <v>578</v>
       </c>
       <c r="Y26" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="Z26" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="AB26" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AC26" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AD26" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>584</v>
       </c>
@@ -14390,22 +14529,25 @@
         <v>607</v>
       </c>
       <c r="Y27" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="Z27" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AB27" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AC27" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AD27" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>613</v>
       </c>
@@ -14479,22 +14621,25 @@
         <v>636</v>
       </c>
       <c r="Y28" s="1" t="s">
+        <v>3914</v>
+      </c>
+      <c r="Z28" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AA28" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AB28" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AC28" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>642</v>
       </c>
@@ -14568,22 +14713,25 @@
         <v>665</v>
       </c>
       <c r="Y29" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="Z29" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AB29" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="AB29" s="1" t="s">
+      <c r="AC29" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AD29" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>671</v>
       </c>
@@ -14657,22 +14805,25 @@
         <v>694</v>
       </c>
       <c r="Y30" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="Z30" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="AA30" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="AA30" s="1" t="s">
+      <c r="AB30" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="AB30" s="1" t="s">
+      <c r="AC30" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="AC30" s="1" t="s">
+      <c r="AD30" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>700</v>
       </c>
@@ -14746,22 +14897,25 @@
         <v>723</v>
       </c>
       <c r="Y31" s="1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="Z31" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>729</v>
       </c>
@@ -14835,22 +14989,25 @@
         <v>752</v>
       </c>
       <c r="Y32" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="Z32" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="AA32" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AB32" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="AB32" s="1" t="s">
+      <c r="AC32" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AD32" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>758</v>
       </c>
@@ -14924,22 +15081,25 @@
         <v>781</v>
       </c>
       <c r="Y33" s="1" t="s">
+        <v>3919</v>
+      </c>
+      <c r="Z33" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="AA33" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="AA33" s="1" t="s">
+      <c r="AB33" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="AB33" s="1" t="s">
+      <c r="AC33" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AD33" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>787</v>
       </c>
@@ -15013,22 +15173,25 @@
         <v>752</v>
       </c>
       <c r="Y34" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="Z34" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="AA34" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="AA34" s="1" t="s">
+      <c r="AB34" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="AB34" s="1" t="s">
+      <c r="AC34" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AD34" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>814</v>
       </c>
@@ -15102,22 +15265,25 @@
         <v>837</v>
       </c>
       <c r="Y35" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="Z35" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="AA35" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="AA35" s="1" t="s">
+      <c r="AB35" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="AB35" s="1" t="s">
+      <c r="AC35" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AD35" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>843</v>
       </c>
@@ -15191,22 +15357,25 @@
         <v>866</v>
       </c>
       <c r="Y36" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="Z36" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="AA36" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AB36" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AC36" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AD36" s="1" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>872</v>
       </c>
@@ -15280,22 +15449,25 @@
         <v>895</v>
       </c>
       <c r="Y37" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="Z37" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="AA37" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AB37" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AC37" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AD37" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>901</v>
       </c>
@@ -15369,22 +15541,25 @@
         <v>924</v>
       </c>
       <c r="Y38" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="Z38" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="AA38" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="AA38" s="1" t="s">
+      <c r="AB38" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AB38" s="1" t="s">
+      <c r="AC38" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="AC38" s="1" t="s">
+      <c r="AD38" s="1" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>930</v>
       </c>
@@ -15458,22 +15633,25 @@
         <v>953</v>
       </c>
       <c r="Y39" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="Z39" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="AA39" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="AA39" s="1" t="s">
+      <c r="AB39" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="AB39" s="1" t="s">
+      <c r="AC39" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="AC39" s="1" t="s">
+      <c r="AD39" s="1" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>959</v>
       </c>
@@ -15541,28 +15719,31 @@
         <v>980</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>923</v>
+        <v>3925</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>924</v>
+        <v>3926</v>
       </c>
       <c r="Y40" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="Z40" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="AA40" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="AA40" s="1" t="s">
+      <c r="AB40" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="AB40" s="1" t="s">
+      <c r="AC40" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="AC40" s="1" t="s">
+      <c r="AD40" s="1" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>986</v>
       </c>
@@ -15631,23 +15812,24 @@
       </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1" t="s">
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="AA41" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="AA41" s="1" t="s">
+      <c r="AB41" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AC41" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="AC41" s="1" t="s">
+      <c r="AD41" s="1" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1013</v>
       </c>
@@ -15716,23 +15898,24 @@
       </c>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1" t="s">
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="AA42" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="AB42" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AC42" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="AC42" s="1" t="s">
+      <c r="AD42" s="1" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>1040</v>
       </c>
@@ -15801,23 +15984,24 @@
       </c>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1" t="s">
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="AA43" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="AA43" s="1" t="s">
+      <c r="AB43" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="AB43" s="1" t="s">
+      <c r="AC43" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AD43" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1067</v>
       </c>
@@ -15886,23 +16070,24 @@
       </c>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1" t="s">
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="AA44" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="AA44" s="1" t="s">
+      <c r="AB44" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AC44" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="AC44" s="1" t="s">
+      <c r="AD44" s="1" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>1094</v>
       </c>
@@ -15971,23 +16156,24 @@
       </c>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1" t="s">
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="AA45" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="AA45" s="1" t="s">
+      <c r="AB45" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="AB45" s="1" t="s">
+      <c r="AC45" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="AC45" s="1" t="s">
+      <c r="AD45" s="1" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1121</v>
       </c>
@@ -16056,23 +16242,24 @@
       </c>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1" t="s">
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="Z46" s="1" t="s">
+      <c r="AA46" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="AA46" s="1" t="s">
+      <c r="AB46" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AC46" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="AC46" s="1" t="s">
+      <c r="AD46" s="1" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1148</v>
       </c>
@@ -16141,23 +16328,24 @@
       </c>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1" t="s">
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="Z47" s="1" t="s">
+      <c r="AA47" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="AA47" s="1" t="s">
+      <c r="AB47" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="AB47" s="1" t="s">
+      <c r="AC47" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="AC47" s="1" t="s">
+      <c r="AD47" s="1" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1175</v>
       </c>
@@ -16226,23 +16414,24 @@
       </c>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1" t="s">
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="Z48" s="1" t="s">
+      <c r="AA48" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="AA48" s="1" t="s">
+      <c r="AB48" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="AB48" s="1" t="s">
+      <c r="AC48" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="AC48" s="1" t="s">
+      <c r="AD48" s="1" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>1202</v>
       </c>
@@ -16311,23 +16500,24 @@
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1" t="s">
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="Z49" s="1" t="s">
+      <c r="AA49" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="AA49" s="1" t="s">
+      <c r="AB49" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="AB49" s="1" t="s">
+      <c r="AC49" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="AC49" s="1" t="s">
+      <c r="AD49" s="1" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1229</v>
       </c>
@@ -16396,23 +16586,24 @@
       </c>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1" t="s">
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="Z50" s="1" t="s">
+      <c r="AA50" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="AA50" s="1" t="s">
+      <c r="AB50" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AC50" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="AC50" s="1" t="s">
+      <c r="AD50" s="1" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>1256</v>
       </c>
@@ -16481,23 +16672,24 @@
       </c>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="1" t="s">
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="Z51" s="1" t="s">
+      <c r="AA51" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="AA51" s="1" t="s">
+      <c r="AB51" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AC51" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="AC51" s="1" t="s">
+      <c r="AD51" s="1" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>1283</v>
       </c>
@@ -16566,23 +16758,24 @@
       </c>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="1" t="s">
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="Z52" s="1" t="s">
+      <c r="AA52" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="AA52" s="1" t="s">
+      <c r="AB52" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="AB52" s="1" t="s">
+      <c r="AC52" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="AC52" s="1" t="s">
+      <c r="AD52" s="1" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>1310</v>
       </c>
@@ -16651,23 +16844,24 @@
       </c>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="1" t="s">
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="Z53" s="1" t="s">
+      <c r="AA53" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="AA53" s="1" t="s">
+      <c r="AB53" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="AB53" s="1" t="s">
+      <c r="AC53" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="AC53" s="1" t="s">
+      <c r="AD53" s="1" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>1337</v>
       </c>
@@ -16736,23 +16930,24 @@
       </c>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="1" t="s">
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="Z54" s="1" t="s">
+      <c r="AA54" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="AA54" s="1" t="s">
+      <c r="AB54" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="AB54" s="1" t="s">
+      <c r="AC54" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="AC54" s="1" t="s">
+      <c r="AD54" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>1364</v>
       </c>
@@ -16821,23 +17016,24 @@
       </c>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1" t="s">
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="Z55" s="1" t="s">
+      <c r="AA55" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="AA55" s="1" t="s">
+      <c r="AB55" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="AB55" s="1" t="s">
+      <c r="AC55" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="AC55" s="1" t="s">
+      <c r="AD55" s="1" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>1391</v>
       </c>
@@ -16906,23 +17102,24 @@
       </c>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="1" t="s">
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="Z56" s="1" t="s">
+      <c r="AA56" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="AA56" s="1" t="s">
+      <c r="AB56" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="AB56" s="1" t="s">
+      <c r="AC56" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="AC56" s="1" t="s">
+      <c r="AD56" s="1" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>1418</v>
       </c>
@@ -16991,23 +17188,24 @@
       </c>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="1" t="s">
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="Z57" s="1" t="s">
+      <c r="AA57" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="AA57" s="1" t="s">
+      <c r="AB57" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AC57" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="AC57" s="1" t="s">
+      <c r="AD57" s="1" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>1445</v>
       </c>
@@ -17076,23 +17274,24 @@
       </c>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1" t="s">
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="Z58" s="1" t="s">
+      <c r="AA58" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="AA58" s="1" t="s">
+      <c r="AB58" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="AB58" s="1" t="s">
+      <c r="AC58" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="AC58" s="1" t="s">
+      <c r="AD58" s="1" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1472</v>
       </c>
@@ -17161,23 +17360,24 @@
       </c>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1" t="s">
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="Z59" s="1" t="s">
+      <c r="AA59" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="AA59" s="1" t="s">
+      <c r="AB59" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="AB59" s="1" t="s">
+      <c r="AC59" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="AC59" s="1" t="s">
+      <c r="AD59" s="1" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>1499</v>
       </c>
@@ -17246,23 +17446,24 @@
       </c>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
-      <c r="Y60" s="1" t="s">
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="Z60" s="1" t="s">
+      <c r="AA60" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="AA60" s="1" t="s">
+      <c r="AB60" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="AB60" s="1" t="s">
+      <c r="AC60" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="AC60" s="1" t="s">
+      <c r="AD60" s="1" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1526</v>
       </c>
@@ -17331,23 +17532,24 @@
       </c>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="1" t="s">
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="Z61" s="1" t="s">
+      <c r="AA61" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="AA61" s="1" t="s">
+      <c r="AB61" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="AB61" s="1" t="s">
+      <c r="AC61" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="AC61" s="1" t="s">
+      <c r="AD61" s="1" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1553</v>
       </c>
@@ -17416,23 +17618,24 @@
       </c>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
-      <c r="Y62" s="1" t="s">
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="Z62" s="1" t="s">
+      <c r="AA62" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="AA62" s="1" t="s">
+      <c r="AB62" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="AB62" s="1" t="s">
+      <c r="AC62" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="AC62" s="1" t="s">
+      <c r="AD62" s="1" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1580</v>
       </c>
@@ -17501,23 +17704,24 @@
       </c>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
-      <c r="Y63" s="1" t="s">
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="Z63" s="1" t="s">
+      <c r="AA63" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="AA63" s="1" t="s">
+      <c r="AB63" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="AB63" s="1" t="s">
+      <c r="AC63" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="AC63" s="1" t="s">
+      <c r="AD63" s="1" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1607</v>
       </c>
@@ -17586,23 +17790,24 @@
       </c>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
-      <c r="Y64" s="1" t="s">
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="Z64" s="1" t="s">
+      <c r="AA64" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="AA64" s="1" t="s">
+      <c r="AB64" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="AB64" s="1" t="s">
+      <c r="AC64" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="AC64" s="1" t="s">
+      <c r="AD64" s="1" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1634</v>
       </c>
@@ -17671,23 +17876,24 @@
       </c>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="1" t="s">
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="Z65" s="1" t="s">
+      <c r="AA65" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="AA65" s="1" t="s">
+      <c r="AB65" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="AB65" s="1" t="s">
+      <c r="AC65" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="AC65" s="1" t="s">
+      <c r="AD65" s="1" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>1661</v>
       </c>
@@ -17756,23 +17962,24 @@
       </c>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
-      <c r="Y66" s="1" t="s">
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="Z66" s="1" t="s">
+      <c r="AA66" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="AA66" s="1" t="s">
+      <c r="AB66" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="AB66" s="1" t="s">
+      <c r="AC66" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="AC66" s="1" t="s">
+      <c r="AD66" s="1" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>1688</v>
       </c>
@@ -17841,23 +18048,24 @@
       </c>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
-      <c r="Y67" s="1" t="s">
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="Z67" s="1" t="s">
+      <c r="AA67" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="AA67" s="1" t="s">
+      <c r="AB67" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="AB67" s="1" t="s">
+      <c r="AC67" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="AC67" s="1" t="s">
+      <c r="AD67" s="1" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1715</v>
       </c>
@@ -17925,23 +18133,23 @@
         <v>1736</v>
       </c>
       <c r="W68" s="1"/>
-      <c r="Y68" s="1" t="s">
+      <c r="Z68" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="Z68" s="1" t="s">
+      <c r="AA68" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="AA68" s="1" t="s">
+      <c r="AB68" s="1" t="s">
         <v>1739</v>
       </c>
-      <c r="AB68" s="1" t="s">
+      <c r="AC68" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="AC68" s="1" t="s">
+      <c r="AD68" s="1" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>1742</v>
       </c>
@@ -18010,23 +18218,24 @@
       </c>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
-      <c r="Y69" s="1" t="s">
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="Z69" s="1" t="s">
+      <c r="AA69" s="1" t="s">
         <v>1765</v>
       </c>
-      <c r="AA69" s="1" t="s">
+      <c r="AB69" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="AB69" s="1" t="s">
+      <c r="AC69" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="AC69" s="1" t="s">
+      <c r="AD69" s="1" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>1769</v>
       </c>
@@ -18095,23 +18304,24 @@
       </c>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
-      <c r="Y70" s="1" t="s">
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="Z70" s="1" t="s">
+      <c r="AA70" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="AA70" s="1" t="s">
+      <c r="AB70" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="AB70" s="1" t="s">
+      <c r="AC70" s="1" t="s">
         <v>1794</v>
       </c>
-      <c r="AC70" s="1" t="s">
+      <c r="AD70" s="1" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1796</v>
       </c>
@@ -18180,23 +18390,24 @@
       </c>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="1" t="s">
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="Z71" s="1" t="s">
+      <c r="AA71" s="1" t="s">
         <v>1819</v>
       </c>
-      <c r="AA71" s="1" t="s">
+      <c r="AB71" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="AB71" s="1" t="s">
+      <c r="AC71" s="1" t="s">
         <v>1821</v>
       </c>
-      <c r="AC71" s="1" t="s">
+      <c r="AD71" s="1" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>1823</v>
       </c>
@@ -18265,23 +18476,24 @@
       </c>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1" t="s">
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1" t="s">
         <v>1845</v>
       </c>
-      <c r="Z72" s="1" t="s">
+      <c r="AA72" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="AA72" s="1" t="s">
+      <c r="AB72" s="1" t="s">
         <v>1847</v>
       </c>
-      <c r="AB72" s="1" t="s">
+      <c r="AC72" s="1" t="s">
         <v>1848</v>
       </c>
-      <c r="AC72" s="1" t="s">
+      <c r="AD72" s="1" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>1850</v>
       </c>
@@ -18350,23 +18562,24 @@
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1" t="s">
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="Z73" s="1" t="s">
+      <c r="AA73" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="AA73" s="1" t="s">
+      <c r="AB73" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="AB73" s="1" t="s">
+      <c r="AC73" s="1" t="s">
         <v>1875</v>
       </c>
-      <c r="AC73" s="1" t="s">
+      <c r="AD73" s="1" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1877</v>
       </c>
@@ -18435,23 +18648,24 @@
       </c>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
-      <c r="Y74" s="1" t="s">
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1" t="s">
         <v>1899</v>
       </c>
-      <c r="Z74" s="1" t="s">
+      <c r="AA74" s="1" t="s">
         <v>1900</v>
       </c>
-      <c r="AA74" s="1" t="s">
+      <c r="AB74" s="1" t="s">
         <v>1901</v>
       </c>
-      <c r="AB74" s="1" t="s">
+      <c r="AC74" s="1" t="s">
         <v>1902</v>
       </c>
-      <c r="AC74" s="1" t="s">
+      <c r="AD74" s="1" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>1904</v>
       </c>
@@ -18520,23 +18734,24 @@
       </c>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
-      <c r="Y75" s="1" t="s">
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1" t="s">
         <v>1926</v>
       </c>
-      <c r="Z75" s="1" t="s">
+      <c r="AA75" s="1" t="s">
         <v>1927</v>
       </c>
-      <c r="AA75" s="1" t="s">
+      <c r="AB75" s="1" t="s">
         <v>1928</v>
       </c>
-      <c r="AB75" s="1" t="s">
+      <c r="AC75" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="AC75" s="1" t="s">
+      <c r="AD75" s="1" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>1931</v>
       </c>
@@ -18605,23 +18820,24 @@
       </c>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
-      <c r="Y76" s="1" t="s">
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="Z76" s="1" t="s">
+      <c r="AA76" s="1" t="s">
         <v>1954</v>
       </c>
-      <c r="AA76" s="1" t="s">
+      <c r="AB76" s="1" t="s">
         <v>1955</v>
       </c>
-      <c r="AB76" s="1" t="s">
+      <c r="AC76" s="1" t="s">
         <v>1956</v>
       </c>
-      <c r="AC76" s="1" t="s">
+      <c r="AD76" s="1" t="s">
         <v>1957</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>1958</v>
       </c>
@@ -18690,23 +18906,24 @@
       </c>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
-      <c r="Y77" s="1" t="s">
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1" t="s">
         <v>1980</v>
       </c>
-      <c r="Z77" s="1" t="s">
+      <c r="AA77" s="1" t="s">
         <v>1981</v>
       </c>
-      <c r="AA77" s="1" t="s">
+      <c r="AB77" s="1" t="s">
         <v>1982</v>
       </c>
-      <c r="AB77" s="1" t="s">
+      <c r="AC77" s="1" t="s">
         <v>1983</v>
       </c>
-      <c r="AC77" s="1" t="s">
+      <c r="AD77" s="1" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>1985</v>
       </c>
@@ -18775,23 +18992,24 @@
       </c>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
-      <c r="Y78" s="1" t="s">
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="Z78" s="1" t="s">
+      <c r="AA78" s="1" t="s">
         <v>2008</v>
       </c>
-      <c r="AA78" s="1" t="s">
+      <c r="AB78" s="1" t="s">
         <v>2009</v>
       </c>
-      <c r="AB78" s="1" t="s">
+      <c r="AC78" s="1" t="s">
         <v>2010</v>
       </c>
-      <c r="AC78" s="1" t="s">
+      <c r="AD78" s="1" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>2012</v>
       </c>
@@ -18860,23 +19078,24 @@
       </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
-      <c r="Y79" s="1" t="s">
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1" t="s">
         <v>2034</v>
       </c>
-      <c r="Z79" s="1" t="s">
+      <c r="AA79" s="1" t="s">
         <v>2035</v>
       </c>
-      <c r="AA79" s="1" t="s">
+      <c r="AB79" s="1" t="s">
         <v>2036</v>
       </c>
-      <c r="AB79" s="1" t="s">
+      <c r="AC79" s="1" t="s">
         <v>2037</v>
       </c>
-      <c r="AC79" s="1" t="s">
+      <c r="AD79" s="1" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>2039</v>
       </c>
@@ -18944,23 +19163,23 @@
         <v>1736</v>
       </c>
       <c r="W80" s="1"/>
-      <c r="Y80" s="1" t="s">
+      <c r="Z80" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="Z80" s="1" t="s">
+      <c r="AA80" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="AA80" s="1" t="s">
+      <c r="AB80" s="1" t="s">
         <v>1739</v>
       </c>
-      <c r="AB80" s="1" t="s">
+      <c r="AC80" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="AC80" s="1" t="s">
+      <c r="AD80" s="1" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>2040</v>
       </c>
@@ -19029,23 +19248,24 @@
       </c>
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
-      <c r="Y81" s="1" t="s">
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="Z81" s="1" t="s">
+      <c r="AA81" s="1" t="s">
         <v>1765</v>
       </c>
-      <c r="AA81" s="1" t="s">
+      <c r="AB81" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="AB81" s="1" t="s">
+      <c r="AC81" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="AC81" s="1" t="s">
+      <c r="AD81" s="1" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>2041</v>
       </c>
@@ -19114,23 +19334,24 @@
       </c>
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
-      <c r="Y82" s="1" t="s">
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="Z82" s="1" t="s">
+      <c r="AA82" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="AA82" s="1" t="s">
+      <c r="AB82" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="AB82" s="1" t="s">
+      <c r="AC82" s="1" t="s">
         <v>1794</v>
       </c>
-      <c r="AC82" s="1" t="s">
+      <c r="AD82" s="1" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>2042</v>
       </c>
@@ -19199,23 +19420,24 @@
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
-      <c r="Y83" s="1" t="s">
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="Z83" s="1" t="s">
+      <c r="AA83" s="1" t="s">
         <v>2065</v>
       </c>
-      <c r="AA83" s="1" t="s">
+      <c r="AB83" s="1" t="s">
         <v>2066</v>
       </c>
-      <c r="AB83" s="1" t="s">
+      <c r="AC83" s="1" t="s">
         <v>2067</v>
       </c>
-      <c r="AC83" s="1" t="s">
+      <c r="AD83" s="1" t="s">
         <v>2068</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>2069</v>
       </c>
@@ -19284,23 +19506,24 @@
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
-      <c r="Y84" s="1" t="s">
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1" t="s">
         <v>2091</v>
       </c>
-      <c r="Z84" s="1" t="s">
+      <c r="AA84" s="1" t="s">
         <v>2092</v>
       </c>
-      <c r="AA84" s="1" t="s">
+      <c r="AB84" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="AB84" s="1" t="s">
+      <c r="AC84" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="AC84" s="1" t="s">
+      <c r="AD84" s="1" t="s">
         <v>2095</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>2096</v>
       </c>
@@ -19369,23 +19592,24 @@
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
-      <c r="Y85" s="1" t="s">
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1" t="s">
         <v>2118</v>
       </c>
-      <c r="Z85" s="1" t="s">
+      <c r="AA85" s="1" t="s">
         <v>2119</v>
       </c>
-      <c r="AA85" s="1" t="s">
+      <c r="AB85" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="AB85" s="1" t="s">
+      <c r="AC85" s="1" t="s">
         <v>2121</v>
       </c>
-      <c r="AC85" s="1" t="s">
+      <c r="AD85" s="1" t="s">
         <v>2122</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>2123</v>
       </c>
@@ -19454,23 +19678,24 @@
       </c>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
-      <c r="Y86" s="1" t="s">
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="Z86" s="1" t="s">
+      <c r="AA86" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="AA86" s="1" t="s">
+      <c r="AB86" s="1" t="s">
         <v>2147</v>
       </c>
-      <c r="AB86" s="1" t="s">
+      <c r="AC86" s="1" t="s">
         <v>2148</v>
       </c>
-      <c r="AC86" s="1" t="s">
+      <c r="AD86" s="1" t="s">
         <v>2149</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>2150</v>
       </c>
@@ -19539,23 +19764,24 @@
       </c>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
-      <c r="Y87" s="1" t="s">
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="Z87" s="1" t="s">
+      <c r="AA87" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="AA87" s="1" t="s">
+      <c r="AB87" s="1" t="s">
         <v>2174</v>
       </c>
-      <c r="AB87" s="1" t="s">
+      <c r="AC87" s="1" t="s">
         <v>2175</v>
       </c>
-      <c r="AC87" s="1" t="s">
+      <c r="AD87" s="1" t="s">
         <v>2176</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2177</v>
       </c>
@@ -19624,23 +19850,24 @@
       </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
-      <c r="Y88" s="1" t="s">
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1" t="s">
         <v>2199</v>
       </c>
-      <c r="Z88" s="1" t="s">
+      <c r="AA88" s="1" t="s">
         <v>2200</v>
       </c>
-      <c r="AA88" s="1" t="s">
+      <c r="AB88" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="AB88" s="1" t="s">
+      <c r="AC88" s="1" t="s">
         <v>2202</v>
       </c>
-      <c r="AC88" s="1" t="s">
+      <c r="AD88" s="1" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>2204</v>
       </c>
@@ -19709,23 +19936,24 @@
       </c>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="1" t="s">
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1" t="s">
         <v>2226</v>
       </c>
-      <c r="Z89" s="1" t="s">
+      <c r="AA89" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="AA89" s="1" t="s">
+      <c r="AB89" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="AB89" s="1" t="s">
+      <c r="AC89" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="AC89" s="1" t="s">
+      <c r="AD89" s="1" t="s">
         <v>2230</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>2231</v>
       </c>
@@ -19794,23 +20022,24 @@
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
-      <c r="Y90" s="1" t="s">
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="Z90" s="1" t="s">
+      <c r="AA90" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="AA90" s="1" t="s">
+      <c r="AB90" s="1" t="s">
         <v>2255</v>
       </c>
-      <c r="AB90" s="1" t="s">
+      <c r="AC90" s="1" t="s">
         <v>2256</v>
       </c>
-      <c r="AC90" s="1" t="s">
+      <c r="AD90" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>2258</v>
       </c>
@@ -19879,23 +20108,24 @@
       </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
-      <c r="Y91" s="1" t="s">
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1" t="s">
         <v>3873</v>
       </c>
-      <c r="Z91" s="1" t="s">
+      <c r="AA91" s="1" t="s">
         <v>3874</v>
       </c>
-      <c r="AA91" s="1" t="s">
+      <c r="AB91" s="1" t="s">
         <v>3875</v>
       </c>
-      <c r="AB91" s="1" t="s">
+      <c r="AC91" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="AC91" s="1" t="s">
+      <c r="AD91" s="1" t="s">
         <v>3876</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>2261</v>
       </c>
@@ -19964,23 +20194,24 @@
       </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
-      <c r="Y92" s="1" t="s">
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="Z92" s="1" t="s">
+      <c r="AA92" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="AA92" s="1" t="s">
+      <c r="AB92" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="AB92" s="1" t="s">
+      <c r="AC92" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="AC92" s="1" t="s">
+      <c r="AD92" s="1" t="s">
         <v>2287</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>2288</v>
       </c>
@@ -20049,23 +20280,24 @@
       </c>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
-      <c r="Y93" s="1" t="s">
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="Z93" s="1" t="s">
+      <c r="AA93" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="AA93" s="1" t="s">
+      <c r="AB93" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="AB93" s="1" t="s">
+      <c r="AC93" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="AC93" s="1" t="s">
+      <c r="AD93" s="1" t="s">
         <v>2314</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>2315</v>
       </c>
@@ -20134,23 +20366,24 @@
       </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1" t="s">
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="Z94" s="1" t="s">
+      <c r="AA94" s="1" t="s">
         <v>2338</v>
       </c>
-      <c r="AA94" s="1" t="s">
+      <c r="AB94" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="AB94" s="1" t="s">
+      <c r="AC94" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="AC94" s="1" t="s">
+      <c r="AD94" s="1" t="s">
         <v>2341</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2342</v>
       </c>
@@ -20219,23 +20452,24 @@
       </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
-      <c r="Y95" s="1" t="s">
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1" t="s">
         <v>2364</v>
       </c>
-      <c r="Z95" s="1" t="s">
+      <c r="AA95" s="1" t="s">
         <v>2365</v>
       </c>
-      <c r="AA95" s="1" t="s">
+      <c r="AB95" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="AB95" s="1" t="s">
+      <c r="AC95" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="AC95" s="1" t="s">
+      <c r="AD95" s="1" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>2369</v>
       </c>
@@ -20304,23 +20538,24 @@
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
-      <c r="Y96" s="1" t="s">
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="Z96" s="1" t="s">
+      <c r="AA96" s="1" t="s">
         <v>2392</v>
       </c>
-      <c r="AA96" s="1" t="s">
+      <c r="AB96" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="AB96" s="1" t="s">
+      <c r="AC96" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="AC96" s="1" t="s">
+      <c r="AD96" s="1" t="s">
         <v>2395</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>2396</v>
       </c>
@@ -20389,23 +20624,24 @@
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
-      <c r="Y97" s="1" t="s">
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1" t="s">
         <v>3897</v>
       </c>
-      <c r="Z97" s="1" t="s">
+      <c r="AA97" s="1" t="s">
         <v>3898</v>
       </c>
-      <c r="AA97" s="1" t="s">
+      <c r="AB97" s="1" t="s">
         <v>3899</v>
       </c>
-      <c r="AB97" s="1" t="s">
+      <c r="AC97" s="1" t="s">
         <v>2398</v>
       </c>
-      <c r="AC97" s="1" t="s">
+      <c r="AD97" s="1" t="s">
         <v>3900</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>2399</v>
       </c>
@@ -20474,23 +20710,24 @@
       </c>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
-      <c r="Y98" s="1" t="s">
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="Z98" s="1" t="s">
+      <c r="AA98" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="AA98" s="1" t="s">
+      <c r="AB98" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="AB98" s="1" t="s">
+      <c r="AC98" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="AC98" s="1" t="s">
+      <c r="AD98" s="1" t="s">
         <v>2425</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>2426</v>
       </c>
@@ -20559,23 +20796,24 @@
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
-      <c r="Y99" s="1" t="s">
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="Z99" s="1" t="s">
+      <c r="AA99" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="AA99" s="1" t="s">
+      <c r="AB99" s="1" t="s">
         <v>2450</v>
       </c>
-      <c r="AB99" s="1" t="s">
+      <c r="AC99" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="AC99" s="1" t="s">
+      <c r="AD99" s="1" t="s">
         <v>2452</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>2453</v>
       </c>
@@ -20644,23 +20882,24 @@
       </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
-      <c r="Y100" s="1" t="s">
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="Z100" s="1" t="s">
+      <c r="AA100" s="1" t="s">
         <v>2476</v>
       </c>
-      <c r="AA100" s="1" t="s">
+      <c r="AB100" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="AB100" s="1" t="s">
+      <c r="AC100" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="AC100" s="1" t="s">
+      <c r="AD100" s="1" t="s">
         <v>2479</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>2480</v>
       </c>
@@ -20729,23 +20968,24 @@
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
-      <c r="Y101" s="1" t="s">
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="Z101" s="1" t="s">
+      <c r="AA101" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="AA101" s="1" t="s">
+      <c r="AB101" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="AB101" s="1" t="s">
+      <c r="AC101" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="AC101" s="1" t="s">
+      <c r="AD101" s="1" t="s">
         <v>2506</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>2507</v>
       </c>
@@ -20814,23 +21054,24 @@
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
-      <c r="Y102" s="1" t="s">
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="Z102" s="1" t="s">
+      <c r="AA102" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="AA102" s="1" t="s">
+      <c r="AB102" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="AB102" s="1" t="s">
+      <c r="AC102" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="AC102" s="1" t="s">
+      <c r="AD102" s="1" t="s">
         <v>2533</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>2534</v>
       </c>
@@ -20899,23 +21140,24 @@
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
-      <c r="Y103" s="1" t="s">
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Z103" s="1" t="s">
+      <c r="AA103" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AA103" s="1" t="s">
+      <c r="AB103" s="1" t="s">
         <v>3737</v>
       </c>
-      <c r="AB103" s="1" t="s">
+      <c r="AC103" s="1" t="s">
         <v>3738</v>
       </c>
-      <c r="AC103" s="1" t="s">
+      <c r="AD103" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2535</v>
       </c>
@@ -20984,23 +21226,24 @@
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
-      <c r="Y104" s="1" t="s">
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="Z104" s="1" t="s">
+      <c r="AA104" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="AA104" s="1" t="s">
+      <c r="AB104" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="AB104" s="1" t="s">
+      <c r="AC104" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="AC104" s="1" t="s">
+      <c r="AD104" s="1" t="s">
         <v>2561</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2562</v>
       </c>
@@ -21069,23 +21312,24 @@
       </c>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
-      <c r="Y105" s="1" t="s">
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="Z105" s="1" t="s">
+      <c r="AA105" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="AA105" s="1" t="s">
+      <c r="AB105" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="AB105" s="1" t="s">
+      <c r="AC105" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="AC105" s="1" t="s">
+      <c r="AD105" s="1" t="s">
         <v>2588</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>2589</v>
       </c>
@@ -21154,23 +21398,24 @@
       </c>
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
-      <c r="Y106" s="1" t="s">
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="Z106" s="1" t="s">
+      <c r="AA106" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="AA106" s="1" t="s">
+      <c r="AB106" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="AB106" s="1" t="s">
+      <c r="AC106" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="AC106" s="1" t="s">
+      <c r="AD106" s="1" t="s">
         <v>2615</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2616</v>
       </c>
@@ -21239,23 +21484,24 @@
       </c>
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
-      <c r="Y107" s="1" t="s">
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1" t="s">
         <v>2638</v>
       </c>
-      <c r="Z107" s="1" t="s">
+      <c r="AA107" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="AA107" s="1" t="s">
+      <c r="AB107" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="AB107" s="1" t="s">
+      <c r="AC107" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="AC107" s="1" t="s">
+      <c r="AD107" s="1" t="s">
         <v>2642</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>2643</v>
       </c>
@@ -21324,23 +21570,24 @@
       </c>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
-      <c r="Y108" s="1" t="s">
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="Z108" s="1" t="s">
+      <c r="AA108" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="AA108" s="1" t="s">
+      <c r="AB108" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="AB108" s="1" t="s">
+      <c r="AC108" s="1" t="s">
         <v>2668</v>
       </c>
-      <c r="AC108" s="1" t="s">
+      <c r="AD108" s="1" t="s">
         <v>2669</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2670</v>
       </c>
@@ -21409,23 +21656,24 @@
       </c>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
-      <c r="Y109" s="1" t="s">
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="Z109" s="1" t="s">
+      <c r="AA109" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="AA109" s="1" t="s">
+      <c r="AB109" s="1" t="s">
         <v>3747</v>
       </c>
-      <c r="AB109" s="1" t="s">
+      <c r="AC109" s="1" t="s">
         <v>3748</v>
       </c>
-      <c r="AC109" s="1" t="s">
+      <c r="AD109" s="1" t="s">
         <v>2688</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>2689</v>
       </c>
@@ -21494,23 +21742,24 @@
       </c>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
-      <c r="Y110" s="1" t="s">
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="Z110" s="1" t="s">
+      <c r="AA110" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="AA110" s="1" t="s">
+      <c r="AB110" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="AB110" s="1" t="s">
+      <c r="AC110" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="AC110" s="1" t="s">
+      <c r="AD110" s="1" t="s">
         <v>2715</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>2716</v>
       </c>
@@ -21579,23 +21828,24 @@
       </c>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
-      <c r="Y111" s="1" t="s">
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1" t="s">
         <v>2738</v>
       </c>
-      <c r="Z111" s="1" t="s">
+      <c r="AA111" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="AA111" s="1" t="s">
+      <c r="AB111" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="AB111" s="1" t="s">
+      <c r="AC111" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="AC111" s="1" t="s">
+      <c r="AD111" s="1" t="s">
         <v>2742</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>2743</v>
       </c>
@@ -21664,23 +21914,24 @@
       </c>
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
-      <c r="Y112" s="1" t="s">
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="Z112" s="1" t="s">
+      <c r="AA112" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="AA112" s="1" t="s">
+      <c r="AB112" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="AB112" s="1" t="s">
+      <c r="AC112" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="AC112" s="1" t="s">
+      <c r="AD112" s="1" t="s">
         <v>2769</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>2770</v>
       </c>
@@ -21749,23 +22000,24 @@
       </c>
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
-      <c r="Y113" s="1" t="s">
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="Z113" s="1" t="s">
+      <c r="AA113" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="AA113" s="1" t="s">
+      <c r="AB113" s="1" t="s">
         <v>2794</v>
       </c>
-      <c r="AB113" s="1" t="s">
+      <c r="AC113" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="AC113" s="1" t="s">
+      <c r="AD113" s="1" t="s">
         <v>2796</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>2797</v>
       </c>
@@ -21834,23 +22086,24 @@
       </c>
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
-      <c r="Y114" s="1" t="s">
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="Z114" s="1" t="s">
+      <c r="AA114" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="AA114" s="1" t="s">
+      <c r="AB114" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="AB114" s="1" t="s">
+      <c r="AC114" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="AC114" s="1" t="s">
+      <c r="AD114" s="1" t="s">
         <v>2823</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2824</v>
       </c>
@@ -21919,23 +22172,24 @@
       </c>
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
-      <c r="Y115" s="1" t="s">
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="Z115" s="1" t="s">
+      <c r="AA115" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AA115" s="1" t="s">
+      <c r="AB115" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="AB115" s="1" t="s">
+      <c r="AC115" s="1" t="s">
         <v>2845</v>
       </c>
-      <c r="AC115" s="1" t="s">
+      <c r="AD115" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>2846</v>
       </c>
@@ -22004,23 +22258,24 @@
       </c>
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
-      <c r="Y116" s="1" t="s">
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="Z116" s="1" t="s">
+      <c r="AA116" s="1" t="s">
         <v>2869</v>
       </c>
-      <c r="AA116" s="1" t="s">
+      <c r="AB116" s="1" t="s">
         <v>2870</v>
       </c>
-      <c r="AB116" s="1" t="s">
+      <c r="AC116" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="AC116" s="1" t="s">
+      <c r="AD116" s="1" t="s">
         <v>2872</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>2873</v>
       </c>
@@ -22089,23 +22344,24 @@
       </c>
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
-      <c r="Y117" s="1" t="s">
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1" t="s">
         <v>2895</v>
       </c>
-      <c r="Z117" s="1" t="s">
+      <c r="AA117" s="1" t="s">
         <v>2896</v>
       </c>
-      <c r="AA117" s="1" t="s">
+      <c r="AB117" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="AB117" s="1" t="s">
+      <c r="AC117" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="AC117" s="1" t="s">
+      <c r="AD117" s="1" t="s">
         <v>2899</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>2900</v>
       </c>
@@ -22174,23 +22430,24 @@
       </c>
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
-      <c r="Y118" s="1" t="s">
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1" t="s">
         <v>2922</v>
       </c>
-      <c r="Z118" s="1" t="s">
+      <c r="AA118" s="1" t="s">
         <v>2923</v>
       </c>
-      <c r="AA118" s="1" t="s">
+      <c r="AB118" s="1" t="s">
         <v>2924</v>
       </c>
-      <c r="AB118" s="1" t="s">
+      <c r="AC118" s="1" t="s">
         <v>2925</v>
       </c>
-      <c r="AC118" s="1" t="s">
+      <c r="AD118" s="1" t="s">
         <v>2926</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>2927</v>
       </c>
@@ -22259,23 +22516,24 @@
       </c>
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
-      <c r="Y119" s="1" t="s">
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1" t="s">
         <v>2949</v>
       </c>
-      <c r="Z119" s="1" t="s">
+      <c r="AA119" s="1" t="s">
         <v>2950</v>
       </c>
-      <c r="AA119" s="1" t="s">
+      <c r="AB119" s="1" t="s">
         <v>2951</v>
       </c>
-      <c r="AB119" s="1" t="s">
+      <c r="AC119" s="1" t="s">
         <v>2952</v>
       </c>
-      <c r="AC119" s="1" t="s">
+      <c r="AD119" s="1" t="s">
         <v>2953</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2954</v>
       </c>
@@ -22344,23 +22602,24 @@
       </c>
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
-      <c r="Y120" s="1" t="s">
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1" t="s">
         <v>2976</v>
       </c>
-      <c r="Z120" s="1" t="s">
+      <c r="AA120" s="1" t="s">
         <v>2977</v>
       </c>
-      <c r="AA120" s="1" t="s">
+      <c r="AB120" s="1" t="s">
         <v>2978</v>
       </c>
-      <c r="AB120" s="1" t="s">
+      <c r="AC120" s="1" t="s">
         <v>2979</v>
       </c>
-      <c r="AC120" s="1" t="s">
+      <c r="AD120" s="1" t="s">
         <v>2980</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>2981</v>
       </c>
@@ -22429,23 +22688,24 @@
       </c>
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
-      <c r="Y121" s="1" t="s">
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1" t="s">
         <v>3003</v>
       </c>
-      <c r="Z121" s="1" t="s">
+      <c r="AA121" s="1" t="s">
         <v>3004</v>
       </c>
-      <c r="AA121" s="1" t="s">
+      <c r="AB121" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="AB121" s="1" t="s">
+      <c r="AC121" s="1" t="s">
         <v>3006</v>
       </c>
-      <c r="AC121" s="1" t="s">
+      <c r="AD121" s="1" t="s">
         <v>3007</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>3008</v>
       </c>
@@ -22514,23 +22774,24 @@
       </c>
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
-      <c r="Y122" s="1" t="s">
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1" t="s">
         <v>3030</v>
       </c>
-      <c r="Z122" s="1" t="s">
+      <c r="AA122" s="1" t="s">
         <v>3031</v>
       </c>
-      <c r="AA122" s="1" t="s">
+      <c r="AB122" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="AB122" s="1" t="s">
+      <c r="AC122" s="1" t="s">
         <v>3033</v>
       </c>
-      <c r="AC122" s="1" t="s">
+      <c r="AD122" s="1" t="s">
         <v>3034</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>3035</v>
       </c>
@@ -22599,23 +22860,24 @@
       </c>
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
-      <c r="Y123" s="1" t="s">
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1" t="s">
         <v>3057</v>
       </c>
-      <c r="Z123" s="1" t="s">
+      <c r="AA123" s="1" t="s">
         <v>3058</v>
       </c>
-      <c r="AA123" s="1" t="s">
+      <c r="AB123" s="1" t="s">
         <v>3059</v>
       </c>
-      <c r="AB123" s="1" t="s">
+      <c r="AC123" s="1" t="s">
         <v>3060</v>
       </c>
-      <c r="AC123" s="1" t="s">
+      <c r="AD123" s="1" t="s">
         <v>3061</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>3062</v>
       </c>
@@ -22684,23 +22946,24 @@
       </c>
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
-      <c r="Y124" s="1" t="s">
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1" t="s">
         <v>3084</v>
       </c>
-      <c r="Z124" s="1" t="s">
+      <c r="AA124" s="1" t="s">
         <v>3085</v>
       </c>
-      <c r="AA124" s="1" t="s">
+      <c r="AB124" s="1" t="s">
         <v>3086</v>
       </c>
-      <c r="AB124" s="1" t="s">
+      <c r="AC124" s="1" t="s">
         <v>3087</v>
       </c>
-      <c r="AC124" s="1" t="s">
+      <c r="AD124" s="1" t="s">
         <v>3088</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3089</v>
       </c>
@@ -22769,23 +23032,24 @@
       </c>
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
-      <c r="Y125" s="1" t="s">
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1" t="s">
         <v>3111</v>
       </c>
-      <c r="Z125" s="1" t="s">
+      <c r="AA125" s="1" t="s">
         <v>3112</v>
       </c>
-      <c r="AA125" s="1" t="s">
+      <c r="AB125" s="1" t="s">
         <v>3113</v>
       </c>
-      <c r="AB125" s="1" t="s">
+      <c r="AC125" s="1" t="s">
         <v>3114</v>
       </c>
-      <c r="AC125" s="1" t="s">
+      <c r="AD125" s="1" t="s">
         <v>3115</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>3116</v>
       </c>
@@ -22854,23 +23118,24 @@
       </c>
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
-      <c r="Y126" s="1" t="s">
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1" t="s">
         <v>3138</v>
       </c>
-      <c r="Z126" s="1" t="s">
+      <c r="AA126" s="1" t="s">
         <v>3139</v>
       </c>
-      <c r="AA126" s="1" t="s">
+      <c r="AB126" s="1" t="s">
         <v>3140</v>
       </c>
-      <c r="AB126" s="1" t="s">
+      <c r="AC126" s="1" t="s">
         <v>3141</v>
       </c>
-      <c r="AC126" s="1" t="s">
+      <c r="AD126" s="1" t="s">
         <v>3142</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>3143</v>
       </c>
@@ -22939,23 +23204,24 @@
       </c>
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
-      <c r="Y127" s="1" t="s">
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1" t="s">
         <v>3159</v>
       </c>
-      <c r="Z127" s="1" t="s">
+      <c r="AA127" s="1" t="s">
         <v>3160</v>
       </c>
-      <c r="AA127" s="1" t="s">
+      <c r="AB127" s="1" t="s">
         <v>3763</v>
       </c>
-      <c r="AB127" s="1" t="s">
+      <c r="AC127" s="1" t="s">
         <v>3764</v>
       </c>
-      <c r="AC127" s="1" t="s">
+      <c r="AD127" s="1" t="s">
         <v>3161</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>3162</v>
       </c>
@@ -23024,23 +23290,24 @@
       </c>
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
-      <c r="Y128" s="1" t="s">
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1" t="s">
         <v>3184</v>
       </c>
-      <c r="Z128" s="1" t="s">
+      <c r="AA128" s="1" t="s">
         <v>3185</v>
       </c>
-      <c r="AA128" s="1" t="s">
+      <c r="AB128" s="1" t="s">
         <v>3186</v>
       </c>
-      <c r="AB128" s="1" t="s">
+      <c r="AC128" s="1" t="s">
         <v>3187</v>
       </c>
-      <c r="AC128" s="1" t="s">
+      <c r="AD128" s="1" t="s">
         <v>3188</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>3189</v>
       </c>
@@ -23109,23 +23376,24 @@
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
-      <c r="Y129" s="1" t="s">
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1" t="s">
         <v>3211</v>
       </c>
-      <c r="Z129" s="1" t="s">
+      <c r="AA129" s="1" t="s">
         <v>3212</v>
       </c>
-      <c r="AA129" s="1" t="s">
+      <c r="AB129" s="1" t="s">
         <v>3213</v>
       </c>
-      <c r="AB129" s="1" t="s">
+      <c r="AC129" s="1" t="s">
         <v>3214</v>
       </c>
-      <c r="AC129" s="1" t="s">
+      <c r="AD129" s="1" t="s">
         <v>3215</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>3216</v>
       </c>
@@ -23194,23 +23462,24 @@
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
-      <c r="Y130" s="1" t="s">
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1" t="s">
         <v>3238</v>
       </c>
-      <c r="Z130" s="1" t="s">
+      <c r="AA130" s="1" t="s">
         <v>3239</v>
       </c>
-      <c r="AA130" s="1" t="s">
+      <c r="AB130" s="1" t="s">
         <v>3240</v>
       </c>
-      <c r="AB130" s="1" t="s">
+      <c r="AC130" s="1" t="s">
         <v>3241</v>
       </c>
-      <c r="AC130" s="1" t="s">
+      <c r="AD130" s="1" t="s">
         <v>3242</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>3243</v>
       </c>
@@ -23279,23 +23548,24 @@
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
-      <c r="Y131" s="1" t="s">
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1" t="s">
         <v>3259</v>
       </c>
-      <c r="Z131" s="1" t="s">
+      <c r="AA131" s="1" t="s">
         <v>3260</v>
       </c>
-      <c r="AA131" s="1" t="s">
+      <c r="AB131" s="1" t="s">
         <v>3819</v>
       </c>
-      <c r="AB131" s="1" t="s">
+      <c r="AC131" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="AC131" s="1" t="s">
+      <c r="AD131" s="1" t="s">
         <v>3261</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>3262</v>
       </c>
@@ -23364,23 +23634,24 @@
       </c>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
-      <c r="Y132" s="1" t="s">
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1" t="s">
         <v>3278</v>
       </c>
-      <c r="Z132" s="1" t="s">
+      <c r="AA132" s="1" t="s">
         <v>3279</v>
       </c>
-      <c r="AA132" s="1" t="s">
+      <c r="AB132" s="1" t="s">
         <v>3827</v>
       </c>
-      <c r="AB132" s="1" t="s">
+      <c r="AC132" s="1" t="s">
         <v>3828</v>
       </c>
-      <c r="AC132" s="1" t="s">
+      <c r="AD132" s="1" t="s">
         <v>3280</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>3281</v>
       </c>
@@ -23449,23 +23720,24 @@
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
-      <c r="Y133" s="1" t="s">
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1" t="s">
         <v>3297</v>
       </c>
-      <c r="Z133" s="1" t="s">
+      <c r="AA133" s="1" t="s">
         <v>3298</v>
       </c>
-      <c r="AA133" s="1" t="s">
+      <c r="AB133" s="1" t="s">
         <v>3755</v>
       </c>
-      <c r="AB133" s="1" t="s">
+      <c r="AC133" s="1" t="s">
         <v>3756</v>
       </c>
-      <c r="AC133" s="1" t="s">
+      <c r="AD133" s="1" t="s">
         <v>3299</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>3300</v>
       </c>
@@ -23534,23 +23806,24 @@
       </c>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
-      <c r="Y134" s="1" t="s">
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1" t="s">
         <v>3316</v>
       </c>
-      <c r="Z134" s="1" t="s">
+      <c r="AA134" s="1" t="s">
         <v>3317</v>
       </c>
-      <c r="AA134" s="1" t="s">
+      <c r="AB134" s="1" t="s">
         <v>3835</v>
       </c>
-      <c r="AB134" s="1" t="s">
+      <c r="AC134" s="1" t="s">
         <v>3836</v>
       </c>
-      <c r="AC134" s="1" t="s">
+      <c r="AD134" s="1" t="s">
         <v>3318</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>3319</v>
       </c>
@@ -23619,23 +23892,24 @@
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
-      <c r="Y135" s="1" t="s">
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1" t="s">
         <v>3335</v>
       </c>
-      <c r="Z135" s="1" t="s">
+      <c r="AA135" s="1" t="s">
         <v>3336</v>
       </c>
-      <c r="AA135" s="1" t="s">
+      <c r="AB135" s="1" t="s">
         <v>3843</v>
       </c>
-      <c r="AB135" s="1" t="s">
+      <c r="AC135" s="1" t="s">
         <v>3844</v>
       </c>
-      <c r="AC135" s="1" t="s">
+      <c r="AD135" s="1" t="s">
         <v>3337</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>3338</v>
       </c>
@@ -23704,23 +23978,24 @@
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
-      <c r="Y136" s="1" t="s">
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1" t="s">
         <v>3354</v>
       </c>
-      <c r="Z136" s="1" t="s">
+      <c r="AA136" s="1" t="s">
         <v>3355</v>
       </c>
-      <c r="AA136" s="1" t="s">
+      <c r="AB136" s="1" t="s">
         <v>3851</v>
       </c>
-      <c r="AB136" s="1" t="s">
+      <c r="AC136" s="1" t="s">
         <v>3852</v>
       </c>
-      <c r="AC136" s="1" t="s">
+      <c r="AD136" s="1" t="s">
         <v>3356</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>3357</v>
       </c>
@@ -23789,23 +24064,24 @@
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
-      <c r="Y137" s="1" t="s">
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1" t="s">
         <v>3379</v>
       </c>
-      <c r="Z137" s="1" t="s">
+      <c r="AA137" s="1" t="s">
         <v>3380</v>
       </c>
-      <c r="AA137" s="1" t="s">
+      <c r="AB137" s="1" t="s">
         <v>3381</v>
       </c>
-      <c r="AB137" s="1" t="s">
+      <c r="AC137" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="AC137" s="1" t="s">
+      <c r="AD137" s="1" t="s">
         <v>3383</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>3384</v>
       </c>
@@ -23874,23 +24150,24 @@
       </c>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
-      <c r="Y138" s="1" t="s">
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1" t="s">
         <v>3406</v>
       </c>
-      <c r="Z138" s="1" t="s">
+      <c r="AA138" s="1" t="s">
         <v>3407</v>
       </c>
-      <c r="AA138" s="1" t="s">
+      <c r="AB138" s="1" t="s">
         <v>3408</v>
       </c>
-      <c r="AB138" s="1" t="s">
+      <c r="AC138" s="1" t="s">
         <v>3409</v>
       </c>
-      <c r="AC138" s="1" t="s">
+      <c r="AD138" s="1" t="s">
         <v>3410</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>3411</v>
       </c>
@@ -23959,23 +24236,24 @@
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
-      <c r="Y139" s="1" t="s">
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1" t="s">
         <v>3433</v>
       </c>
-      <c r="Z139" s="1" t="s">
+      <c r="AA139" s="1" t="s">
         <v>3434</v>
       </c>
-      <c r="AA139" s="1" t="s">
+      <c r="AB139" s="1" t="s">
         <v>3435</v>
       </c>
-      <c r="AB139" s="1" t="s">
+      <c r="AC139" s="1" t="s">
         <v>3436</v>
       </c>
-      <c r="AC139" s="1" t="s">
+      <c r="AD139" s="1" t="s">
         <v>3437</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3438</v>
       </c>
@@ -24044,23 +24322,24 @@
       </c>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
-      <c r="Y140" s="1" t="s">
+      <c r="Y140" s="1"/>
+      <c r="Z140" s="1" t="s">
         <v>3460</v>
       </c>
-      <c r="Z140" s="1" t="s">
+      <c r="AA140" s="1" t="s">
         <v>3461</v>
       </c>
-      <c r="AA140" s="1" t="s">
+      <c r="AB140" s="1" t="s">
         <v>3462</v>
       </c>
-      <c r="AB140" s="1" t="s">
+      <c r="AC140" s="1" t="s">
         <v>3463</v>
       </c>
-      <c r="AC140" s="1" t="s">
+      <c r="AD140" s="1" t="s">
         <v>3464</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>3465</v>
       </c>
@@ -24129,23 +24408,24 @@
       </c>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
-      <c r="Y141" s="1" t="s">
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1" t="s">
         <v>3487</v>
       </c>
-      <c r="Z141" s="1" t="s">
+      <c r="AA141" s="1" t="s">
         <v>3488</v>
       </c>
-      <c r="AA141" s="1" t="s">
+      <c r="AB141" s="1" t="s">
         <v>3489</v>
       </c>
-      <c r="AB141" s="1" t="s">
+      <c r="AC141" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="AC141" s="1" t="s">
+      <c r="AD141" s="1" t="s">
         <v>3491</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>3492</v>
       </c>
@@ -24214,23 +24494,24 @@
       </c>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
-      <c r="Y142" s="1" t="s">
+      <c r="Y142" s="1"/>
+      <c r="Z142" s="1" t="s">
         <v>3514</v>
       </c>
-      <c r="Z142" s="1" t="s">
+      <c r="AA142" s="1" t="s">
         <v>3515</v>
       </c>
-      <c r="AA142" s="1" t="s">
+      <c r="AB142" s="1" t="s">
         <v>3516</v>
       </c>
-      <c r="AB142" s="1" t="s">
+      <c r="AC142" s="1" t="s">
         <v>3517</v>
       </c>
-      <c r="AC142" s="1" t="s">
+      <c r="AD142" s="1" t="s">
         <v>3518</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>3519</v>
       </c>
@@ -24299,23 +24580,24 @@
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
-      <c r="Y143" s="1" t="s">
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1" t="s">
         <v>3535</v>
       </c>
-      <c r="Z143" s="1" t="s">
+      <c r="AA143" s="1" t="s">
         <v>3536</v>
       </c>
-      <c r="AA143" s="1" t="s">
+      <c r="AB143" s="1" t="s">
         <v>3771</v>
       </c>
-      <c r="AB143" s="1" t="s">
+      <c r="AC143" s="1" t="s">
         <v>3772</v>
       </c>
-      <c r="AC143" s="1" t="s">
+      <c r="AD143" s="1" t="s">
         <v>3537</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>3538</v>
       </c>
@@ -24384,23 +24666,24 @@
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
-      <c r="Y144" s="1" t="s">
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1" t="s">
         <v>3554</v>
       </c>
-      <c r="Z144" s="1" t="s">
+      <c r="AA144" s="1" t="s">
         <v>3555</v>
       </c>
-      <c r="AA144" s="1" t="s">
+      <c r="AB144" s="1" t="s">
         <v>3779</v>
       </c>
-      <c r="AB144" s="1" t="s">
+      <c r="AC144" s="1" t="s">
         <v>3780</v>
       </c>
-      <c r="AC144" s="1" t="s">
+      <c r="AD144" s="1" t="s">
         <v>3556</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>3557</v>
       </c>
@@ -24469,23 +24752,24 @@
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
-      <c r="Y145" s="1" t="s">
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1" t="s">
         <v>3573</v>
       </c>
-      <c r="Z145" s="1" t="s">
+      <c r="AA145" s="1" t="s">
         <v>3574</v>
       </c>
-      <c r="AA145" s="1" t="s">
+      <c r="AB145" s="1" t="s">
         <v>3787</v>
       </c>
-      <c r="AB145" s="1" t="s">
+      <c r="AC145" s="1" t="s">
         <v>3788</v>
       </c>
-      <c r="AC145" s="1" t="s">
+      <c r="AD145" s="1" t="s">
         <v>3575</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>3576</v>
       </c>
@@ -24554,23 +24838,24 @@
       </c>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
-      <c r="Y146" s="1" t="s">
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1" t="s">
         <v>3592</v>
       </c>
-      <c r="Z146" s="1" t="s">
+      <c r="AA146" s="1" t="s">
         <v>3593</v>
       </c>
-      <c r="AA146" s="1" t="s">
+      <c r="AB146" s="1" t="s">
         <v>3795</v>
       </c>
-      <c r="AB146" s="1" t="s">
+      <c r="AC146" s="1" t="s">
         <v>3796</v>
       </c>
-      <c r="AC146" s="1" t="s">
+      <c r="AD146" s="1" t="s">
         <v>3594</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>3595</v>
       </c>
@@ -24639,23 +24924,24 @@
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
-      <c r="Y147" s="1" t="s">
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1" t="s">
         <v>3611</v>
       </c>
-      <c r="Z147" s="1" t="s">
+      <c r="AA147" s="1" t="s">
         <v>3612</v>
       </c>
-      <c r="AA147" s="1" t="s">
+      <c r="AB147" s="1" t="s">
         <v>3803</v>
       </c>
-      <c r="AB147" s="1" t="s">
+      <c r="AC147" s="1" t="s">
         <v>3804</v>
       </c>
-      <c r="AC147" s="1" t="s">
+      <c r="AD147" s="1" t="s">
         <v>3613</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>3614</v>
       </c>
@@ -24724,23 +25010,24 @@
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
-      <c r="Y148" s="1" t="s">
+      <c r="Y148" s="1"/>
+      <c r="Z148" s="1" t="s">
         <v>3630</v>
       </c>
-      <c r="Z148" s="1" t="s">
+      <c r="AA148" s="1" t="s">
         <v>3631</v>
       </c>
-      <c r="AA148" s="1" t="s">
+      <c r="AB148" s="1" t="s">
         <v>3811</v>
       </c>
-      <c r="AB148" s="1" t="s">
+      <c r="AC148" s="1" t="s">
         <v>3812</v>
       </c>
-      <c r="AC148" s="1" t="s">
+      <c r="AD148" s="1" t="s">
         <v>3632</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>3633</v>
       </c>
@@ -24809,23 +25096,24 @@
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
-      <c r="Y149" s="1" t="s">
+      <c r="Y149" s="1"/>
+      <c r="Z149" s="1" t="s">
         <v>3652</v>
       </c>
-      <c r="Z149" s="1" t="s">
+      <c r="AA149" s="1" t="s">
         <v>3653</v>
       </c>
-      <c r="AA149" s="1" t="s">
+      <c r="AB149" s="1" t="s">
         <v>3654</v>
       </c>
-      <c r="AB149" s="1" t="s">
+      <c r="AC149" s="1" t="s">
         <v>3655</v>
       </c>
-      <c r="AC149" s="1" t="s">
+      <c r="AD149" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>3656</v>
       </c>
@@ -24894,23 +25182,24 @@
       </c>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
-      <c r="Y150" s="1" t="s">
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="Z150" s="1" t="s">
+      <c r="AA150" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="AA150" s="1" t="s">
+      <c r="AB150" s="1" t="s">
         <v>3676</v>
       </c>
-      <c r="AB150" s="1" t="s">
+      <c r="AC150" s="1" t="s">
         <v>3677</v>
       </c>
-      <c r="AC150" s="1" t="s">
+      <c r="AD150" s="1" t="s">
         <v>2588</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>3678</v>
       </c>
@@ -24979,23 +25268,24 @@
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
-      <c r="Y151" s="1" t="s">
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1" t="s">
         <v>3700</v>
       </c>
-      <c r="Z151" s="1" t="s">
+      <c r="AA151" s="1" t="s">
         <v>3701</v>
       </c>
-      <c r="AA151" s="1" t="s">
+      <c r="AB151" s="1" t="s">
         <v>3702</v>
       </c>
-      <c r="AB151" s="1" t="s">
+      <c r="AC151" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="AC151" s="1" t="s">
+      <c r="AD151" s="1" t="s">
         <v>3704</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>3705</v>
       </c>
@@ -25064,19 +25354,20 @@
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
-      <c r="Y152" s="1" t="s">
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1" t="s">
         <v>3727</v>
       </c>
-      <c r="Z152" s="1" t="s">
+      <c r="AA152" s="1" t="s">
         <v>3728</v>
       </c>
-      <c r="AA152" s="1" t="s">
+      <c r="AB152" s="1" t="s">
         <v>3729</v>
       </c>
-      <c r="AB152" s="1" t="s">
+      <c r="AC152" s="1" t="s">
         <v>3730</v>
       </c>
-      <c r="AC152" s="1" t="s">
+      <c r="AD152" s="1" t="s">
         <v>3731</v>
       </c>
     </row>

--- a/VerbConjugation/XLSX/Trans.xlsx
+++ b/VerbConjugation/XLSX/Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CC6B1D-0908-CD44-8A5E-E68E2A69354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF8E1E4-2A21-9B46-A407-E890AF3EA0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15460" xr2:uid="{8C910C20-26CF-4F4C-8ECA-0074B138AB3F}"/>
+    <workbookView xWindow="860" yWindow="1080" windowWidth="28040" windowHeight="15460" xr2:uid="{8C910C20-26CF-4F4C-8ECA-0074B138AB3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9235,60 +9235,33 @@
     <t>kə jeɻkʰem</t>
   </si>
   <si>
-    <t>k՚uʁɒɻkem</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒm</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒm</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒm</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰnem</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰnem</t>
-  </si>
-  <si>
     <t>kə mernem</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰnem</t>
-  </si>
-  <si>
     <t>kə pʰɒχnem</t>
   </si>
   <si>
-    <t>k՚ɒrnem</t>
-  </si>
-  <si>
     <t>kə tesnem</t>
   </si>
   <si>
-    <t>k՚elnem</t>
-  </si>
-  <si>
     <t>kə tʱɒʁnem</t>
   </si>
   <si>
-    <t>k՚utem</t>
-  </si>
-  <si>
-    <t>k՚ɒnem</t>
-  </si>
-  <si>
     <t>kə tɒnem</t>
   </si>
   <si>
     <t>kə dənem</t>
   </si>
   <si>
-    <t>k՚etʰɒm</t>
-  </si>
-  <si>
     <t>kə tɒm</t>
   </si>
   <si>
@@ -9298,9 +9271,6 @@
     <t>kə beɻem</t>
   </si>
   <si>
-    <t>k՚ɒsem</t>
-  </si>
-  <si>
     <t>kə dɒrnɒm</t>
   </si>
   <si>
@@ -9313,60 +9283,33 @@
     <t>kə jeɻkʰes</t>
   </si>
   <si>
-    <t>k՚uʁɒɻkes</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒs</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒs</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒs</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰnes</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰnes</t>
-  </si>
-  <si>
     <t>kə mernes</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰnes</t>
-  </si>
-  <si>
     <t>kə pʰɒχnes</t>
   </si>
   <si>
-    <t>k՚ɒrnes</t>
-  </si>
-  <si>
     <t>kə tesnes</t>
   </si>
   <si>
-    <t>k՚elnes</t>
-  </si>
-  <si>
     <t>kə tʱɒʁnes</t>
   </si>
   <si>
-    <t>k՚utes</t>
-  </si>
-  <si>
-    <t>k՚ɒnes</t>
-  </si>
-  <si>
     <t>kə tɒnes</t>
   </si>
   <si>
     <t>kə dənes</t>
   </si>
   <si>
-    <t>k՚etʰɒs</t>
-  </si>
-  <si>
     <t>kə tɒs</t>
   </si>
   <si>
@@ -9376,9 +9319,6 @@
     <t>kə beɻes</t>
   </si>
   <si>
-    <t>k՚ɒses</t>
-  </si>
-  <si>
     <t>kə dɒrn{X}</t>
   </si>
   <si>
@@ -9391,42 +9331,21 @@
     <t>kə jeɻkʰi</t>
   </si>
   <si>
-    <t>k՚uʁɒɻki</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰni</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰni</t>
-  </si>
-  <si>
     <t>kə merni</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰni</t>
-  </si>
-  <si>
     <t>kə pʰɒχni</t>
   </si>
   <si>
-    <t>k՚ɒrni</t>
-  </si>
-  <si>
     <t>kə tesni</t>
   </si>
   <si>
-    <t>k՚elni</t>
-  </si>
-  <si>
     <t>kə tʱɒʁni</t>
   </si>
   <si>
-    <t>k՚uti</t>
-  </si>
-  <si>
-    <t>k՚ɒni</t>
-  </si>
-  <si>
     <t>kə tɒni</t>
   </si>
   <si>
@@ -9436,69 +9355,39 @@
     <t>kə beɻi</t>
   </si>
   <si>
-    <t>k՚ɒsi</t>
-  </si>
-  <si>
     <t>kə bɒt͡sʰi</t>
   </si>
   <si>
     <t>kə jeɻkʰeŋkʰ</t>
   </si>
   <si>
-    <t>k՚uʁɒɻkeŋkʰ</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒŋkʰ</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒŋkʰ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒŋkʰ</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰneŋkʰ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰneŋkʰ</t>
-  </si>
-  <si>
     <t>kə merneŋkʰ</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰneŋkʰ</t>
-  </si>
-  <si>
     <t>kə pʰɒχneŋkʰ</t>
   </si>
   <si>
-    <t>k՚ɒrneŋkʰ</t>
-  </si>
-  <si>
     <t>kə tesneŋkʰ</t>
   </si>
   <si>
-    <t>k՚elneŋkʰ</t>
-  </si>
-  <si>
     <t>kə tʱɒʁneŋkʰ</t>
   </si>
   <si>
-    <t>k՚uteŋkʰ</t>
-  </si>
-  <si>
-    <t>k՚ɒneŋkʰ</t>
-  </si>
-  <si>
     <t>kə tɒneŋkʰ</t>
   </si>
   <si>
     <t>kə dəneŋkʰ</t>
   </si>
   <si>
-    <t>k՚etʰɒŋkʰ</t>
-  </si>
-  <si>
     <t>kə tɒŋkʰ</t>
   </si>
   <si>
@@ -9508,9 +9397,6 @@
     <t>kə beɻeŋkʰ</t>
   </si>
   <si>
-    <t>k՚ɒseŋkʰ</t>
-  </si>
-  <si>
     <t>kə dɒrnɒŋkʰ</t>
   </si>
   <si>
@@ -9523,60 +9409,33 @@
     <t>kə jeɻkʰekʰ</t>
   </si>
   <si>
-    <t>k՚uʁɒɻkekʰ</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒkʰ</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒkʰ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒkʰ</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰnekʰ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰnekʰ</t>
-  </si>
-  <si>
     <t>kə mernekʰ</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰnekʰ</t>
-  </si>
-  <si>
     <t>kə pʰɒχnekʰ</t>
   </si>
   <si>
-    <t>k՚ɒrnekʰ</t>
-  </si>
-  <si>
     <t>kə tesnekʰ</t>
   </si>
   <si>
-    <t>k՚elnekʰ</t>
-  </si>
-  <si>
     <t>kə tʱɒʁnekʰ</t>
   </si>
   <si>
-    <t>k՚utekʰ</t>
-  </si>
-  <si>
-    <t>k՚ɒnekʰ</t>
-  </si>
-  <si>
     <t>kə tɒnekʰ</t>
   </si>
   <si>
     <t>kə dənekʰ</t>
   </si>
   <si>
-    <t>k՚etʰɒkʰ</t>
-  </si>
-  <si>
     <t>kə tɒkʰ</t>
   </si>
   <si>
@@ -9586,9 +9445,6 @@
     <t>kə beɻekʰ</t>
   </si>
   <si>
-    <t>k՚ɒsekʰ</t>
-  </si>
-  <si>
     <t>kə dɒrnɒkʰ</t>
   </si>
   <si>
@@ -9601,60 +9457,33 @@
     <t>kə jeɻkʰen</t>
   </si>
   <si>
-    <t>k՚uʁɒɻken</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒn</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒn</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒn</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰnen</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰnen</t>
-  </si>
-  <si>
     <t>kə mernen</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰnen</t>
-  </si>
-  <si>
     <t>kə pʰɒχnen</t>
   </si>
   <si>
-    <t>k՚ɒrnen</t>
-  </si>
-  <si>
     <t>kə tesnen</t>
   </si>
   <si>
-    <t>k՚elnen</t>
-  </si>
-  <si>
     <t>kə tʱɒʁnen</t>
   </si>
   <si>
-    <t>k՚uten</t>
-  </si>
-  <si>
-    <t>k՚ɒnen</t>
-  </si>
-  <si>
     <t>kə tɒnen</t>
   </si>
   <si>
     <t>kə dənen</t>
   </si>
   <si>
-    <t>k՚etʰɒn</t>
-  </si>
-  <si>
     <t>kə tɒn</t>
   </si>
   <si>
@@ -9664,9 +9493,6 @@
     <t>kə beɻen</t>
   </si>
   <si>
-    <t>k՚ɒsen</t>
-  </si>
-  <si>
     <t>kə dɒrnɒn</t>
   </si>
   <si>
@@ -10003,60 +9829,33 @@
     <t>kə jeɻkʰim</t>
   </si>
   <si>
-    <t>k՚uʁɒɻkim</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒjim</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒjim</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒjim</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰnim</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰnim</t>
-  </si>
-  <si>
     <t>kə mernim</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰnim</t>
-  </si>
-  <si>
     <t>kə pʰɒχnim</t>
   </si>
   <si>
-    <t>k՚ɒrnim</t>
-  </si>
-  <si>
     <t>kə tesnim</t>
   </si>
   <si>
-    <t>k՚elnim</t>
-  </si>
-  <si>
     <t>kə tʱɒʁnim</t>
   </si>
   <si>
-    <t>k՚utim</t>
-  </si>
-  <si>
-    <t>k՚ɒnim</t>
-  </si>
-  <si>
     <t>kə tɒnim</t>
   </si>
   <si>
     <t>kə dənim</t>
   </si>
   <si>
-    <t>k՚etʰɒjim</t>
-  </si>
-  <si>
     <t>kə tɒjim</t>
   </si>
   <si>
@@ -10066,9 +9865,6 @@
     <t>kə beɻim</t>
   </si>
   <si>
-    <t>k՚ɒsim</t>
-  </si>
-  <si>
     <t>kə dɒrnɒjim</t>
   </si>
   <si>
@@ -10081,60 +9877,33 @@
     <t>kə jeɻkʰiɻ</t>
   </si>
   <si>
-    <t>k՚uʁɒɻkiɻ</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒjiɻ</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒjiɻ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒjiɻ</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰniɻ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰniɻ</t>
-  </si>
-  <si>
     <t>kə merniɻ</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰniɻ</t>
-  </si>
-  <si>
     <t>kə pʰɒχniɻ</t>
   </si>
   <si>
-    <t>k՚ɒrniɻ</t>
-  </si>
-  <si>
     <t>kə tesniɻ</t>
   </si>
   <si>
-    <t>k՚elniɻ</t>
-  </si>
-  <si>
     <t>kə tʱɒʁniɻ</t>
   </si>
   <si>
-    <t>k՚utiɻ</t>
-  </si>
-  <si>
-    <t>k՚ɒniɻ</t>
-  </si>
-  <si>
     <t>kə tɒniɻ</t>
   </si>
   <si>
     <t>kə dəniɻ</t>
   </si>
   <si>
-    <t>k՚etʰɒjiɻ</t>
-  </si>
-  <si>
     <t>kə tɒjiɻ</t>
   </si>
   <si>
@@ -10144,9 +9913,6 @@
     <t>kə beɻiɻ</t>
   </si>
   <si>
-    <t>k՚ɒsiɻ</t>
-  </si>
-  <si>
     <t>kə dɒrnɒjiɻ</t>
   </si>
   <si>
@@ -10159,60 +9925,33 @@
     <t>kə jeɻkʰeɻ</t>
   </si>
   <si>
-    <t>k՚uʁɒɻkeɻ</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒɻ</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒɻ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒɻ</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰneɻ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰneɻ</t>
-  </si>
-  <si>
     <t>kə merneɻ</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰneɻ</t>
-  </si>
-  <si>
     <t>kə pʰɒχneɻ</t>
   </si>
   <si>
-    <t>k՚ɒrneɻ</t>
-  </si>
-  <si>
     <t>kə tesneɻ</t>
   </si>
   <si>
-    <t>k՚elneɻ</t>
-  </si>
-  <si>
     <t>kə tʱɒʁneɻ</t>
   </si>
   <si>
-    <t>k՚uteɻ</t>
-  </si>
-  <si>
-    <t>k՚ɒneɻ</t>
-  </si>
-  <si>
     <t>kə tɒneɻ</t>
   </si>
   <si>
     <t>kə dəneɻ</t>
   </si>
   <si>
-    <t>k՚etʰɒɻ</t>
-  </si>
-  <si>
     <t>kə tɒɻ</t>
   </si>
   <si>
@@ -10222,9 +9961,6 @@
     <t>kə beɻeɻ</t>
   </si>
   <si>
-    <t>k՚ɒseɻ</t>
-  </si>
-  <si>
     <t>kə dɒrnɒɻ</t>
   </si>
   <si>
@@ -10237,60 +9973,33 @@
     <t>kə jeɻkʰiŋkʰ</t>
   </si>
   <si>
-    <t>k՚uʁɒɻkiŋkʰ</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒjiŋkʰ</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒjiŋkʰ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒjiŋkʰ</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰniŋkʰ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰniŋkʰ</t>
-  </si>
-  <si>
     <t>kə merniŋkʰ</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰniŋkʰ</t>
-  </si>
-  <si>
     <t>kə pʰɒχniŋkʰ</t>
   </si>
   <si>
-    <t>k՚ɒrniŋkʰ</t>
-  </si>
-  <si>
     <t>kə tesniŋkʰ</t>
   </si>
   <si>
-    <t>k՚elniŋkʰ</t>
-  </si>
-  <si>
     <t>kə tʱɒʁniŋkʰ</t>
   </si>
   <si>
-    <t>k՚utiŋkʰ</t>
-  </si>
-  <si>
-    <t>k՚ɒniŋkʰ</t>
-  </si>
-  <si>
     <t>kə tɒniŋkʰ</t>
   </si>
   <si>
     <t>kə dəniŋkʰ</t>
   </si>
   <si>
-    <t>k՚etʰɒjiŋkʰ</t>
-  </si>
-  <si>
     <t>kə tɒjiŋkʰ</t>
   </si>
   <si>
@@ -10300,9 +10009,6 @@
     <t>kə beɻiŋkʰ</t>
   </si>
   <si>
-    <t>k՚ɒsiŋkʰ</t>
-  </si>
-  <si>
     <t>kə dɒrnɒjiŋkʰ</t>
   </si>
   <si>
@@ -10315,60 +10021,33 @@
     <t>kə jeɻkʰikʰ</t>
   </si>
   <si>
-    <t>k՚uʁɒɻkikʰ</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒjikʰ</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒjikʰ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒjikʰ</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰnikʰ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰnikʰ</t>
-  </si>
-  <si>
     <t>kə mernikʰ</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰnikʰ</t>
-  </si>
-  <si>
     <t>kə pʰɒχnikʰ</t>
   </si>
   <si>
-    <t>k՚ɒrnikʰ</t>
-  </si>
-  <si>
     <t>kə tesnikʰ</t>
   </si>
   <si>
-    <t>k՚elnikʰ</t>
-  </si>
-  <si>
     <t>kə tʱɒʁnikʰ</t>
   </si>
   <si>
-    <t>k՚utikʰ</t>
-  </si>
-  <si>
-    <t>k՚ɒnikʰ</t>
-  </si>
-  <si>
     <t>kə tɒnikʰ</t>
   </si>
   <si>
     <t>kə dənikʰ</t>
   </si>
   <si>
-    <t>k՚etʰɒjikʰ</t>
-  </si>
-  <si>
     <t>kə tɒjikʰ</t>
   </si>
   <si>
@@ -10378,9 +10057,6 @@
     <t>kə beɻikʰ</t>
   </si>
   <si>
-    <t>k՚ɒsikʰ</t>
-  </si>
-  <si>
     <t>kə dɒrnɒjikʰ</t>
   </si>
   <si>
@@ -10393,60 +10069,33 @@
     <t>kə jeɻkʰin</t>
   </si>
   <si>
-    <t>k՚uʁɒɻkin</t>
-  </si>
-  <si>
     <t>kə kɒɻtʰɒjin</t>
   </si>
   <si>
     <t>kə t͡sʰɒnknɒjin</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒjin</t>
-  </si>
-  <si>
     <t>kə veɻt͡sʰnin</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒt͡sʰnin</t>
-  </si>
-  <si>
     <t>kə mernin</t>
   </si>
   <si>
-    <t>k՚it͡ʃʰnin</t>
-  </si>
-  <si>
     <t>kə pʰɒχnin</t>
   </si>
   <si>
-    <t>k՚ɒrnin</t>
-  </si>
-  <si>
     <t>kə tesnin</t>
   </si>
   <si>
-    <t>k՚elnin</t>
-  </si>
-  <si>
     <t>kə tʱɒʁnin</t>
   </si>
   <si>
-    <t>k՚utin</t>
-  </si>
-  <si>
-    <t>k՚ɒnin</t>
-  </si>
-  <si>
     <t>kə tɒnin</t>
   </si>
   <si>
     <t>kə dənin</t>
   </si>
   <si>
-    <t>k՚etʰɒjin</t>
-  </si>
-  <si>
     <t>kə tɒjin</t>
   </si>
   <si>
@@ -10456,9 +10105,6 @@
     <t>kə beɻin</t>
   </si>
   <si>
-    <t>k՚ɒsin</t>
-  </si>
-  <si>
     <t>kə dɒrnɒjin</t>
   </si>
   <si>
@@ -11170,12 +10816,6 @@
     <t>kə t͡sʰɒnknɒ</t>
   </si>
   <si>
-    <t>k՚uɻɒχɒnɒ</t>
-  </si>
-  <si>
-    <t>k՚etʰɒ</t>
-  </si>
-  <si>
     <t>kə tɒ</t>
   </si>
   <si>
@@ -11713,42 +11353,6 @@
     <t>negative of periphrastic future 3PL</t>
   </si>
   <si>
-    <t>periphrastic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 3PL</t>
-  </si>
-  <si>
     <t>synthetic future 1SG</t>
   </si>
   <si>
@@ -11785,40 +11389,436 @@
     <t>negative of synthetic future 3PL</t>
   </si>
   <si>
-    <t>synthetic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 3PL</t>
+    <t>future in the past 1SG</t>
+  </si>
+  <si>
+    <t>future in the past 2SG</t>
+  </si>
+  <si>
+    <t>future in the past 3SG</t>
+  </si>
+  <si>
+    <t>future in the past 1PL</t>
+  </si>
+  <si>
+    <t>future in the past 2PL</t>
+  </si>
+  <si>
+    <t>future in the past 3PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 1SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 2SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 3SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 1PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 2PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 3PL</t>
+  </si>
+  <si>
+    <t>conditional past 1SG</t>
+  </si>
+  <si>
+    <t>conditional past 2SG</t>
+  </si>
+  <si>
+    <t>conditional past 3SG</t>
+  </si>
+  <si>
+    <t>conditional past 1PL</t>
+  </si>
+  <si>
+    <t>conditional past 2PL</t>
+  </si>
+  <si>
+    <t>conditional past 3PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 1SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 2SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 3SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 1PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 2PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 3PL</t>
+  </si>
+  <si>
+    <t>kuʁɒɻkem</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒm</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰnem</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰnem</t>
+  </si>
+  <si>
+    <t>kɒrnem</t>
+  </si>
+  <si>
+    <t>kelnem</t>
+  </si>
+  <si>
+    <t>kutem</t>
+  </si>
+  <si>
+    <t>kɒnem</t>
+  </si>
+  <si>
+    <t>ketʰɒm</t>
+  </si>
+  <si>
+    <t>kɒsem</t>
+  </si>
+  <si>
+    <t>kuʁɒɻkes</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒs</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰnes</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰnes</t>
+  </si>
+  <si>
+    <t>kɒrnes</t>
+  </si>
+  <si>
+    <t>kelnes</t>
+  </si>
+  <si>
+    <t>kutes</t>
+  </si>
+  <si>
+    <t>kɒnes</t>
+  </si>
+  <si>
+    <t>ketʰɒs</t>
+  </si>
+  <si>
+    <t>kɒses</t>
+  </si>
+  <si>
+    <t>kuʁɒɻki</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰni</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰni</t>
+  </si>
+  <si>
+    <t>kɒrni</t>
+  </si>
+  <si>
+    <t>kelni</t>
+  </si>
+  <si>
+    <t>kuti</t>
+  </si>
+  <si>
+    <t>kɒni</t>
+  </si>
+  <si>
+    <t>ketʰɒ</t>
+  </si>
+  <si>
+    <t>kɒsi</t>
+  </si>
+  <si>
+    <t>kuʁɒɻkeŋkʰ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒŋkʰ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰneŋkʰ</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰneŋkʰ</t>
+  </si>
+  <si>
+    <t>kɒrneŋkʰ</t>
+  </si>
+  <si>
+    <t>kelneŋkʰ</t>
+  </si>
+  <si>
+    <t>kuteŋkʰ</t>
+  </si>
+  <si>
+    <t>kɒneŋkʰ</t>
+  </si>
+  <si>
+    <t>ketʰɒŋkʰ</t>
+  </si>
+  <si>
+    <t>kɒseŋkʰ</t>
+  </si>
+  <si>
+    <t>kuʁɒɻkekʰ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒkʰ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰnekʰ</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰnekʰ</t>
+  </si>
+  <si>
+    <t>kɒrnekʰ</t>
+  </si>
+  <si>
+    <t>kelnekʰ</t>
+  </si>
+  <si>
+    <t>kutekʰ</t>
+  </si>
+  <si>
+    <t>kɒnekʰ</t>
+  </si>
+  <si>
+    <t>ketʰɒkʰ</t>
+  </si>
+  <si>
+    <t>kɒsekʰ</t>
+  </si>
+  <si>
+    <t>kuʁɒɻken</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒn</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰnen</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰnen</t>
+  </si>
+  <si>
+    <t>kɒrnen</t>
+  </si>
+  <si>
+    <t>kelnen</t>
+  </si>
+  <si>
+    <t>kuten</t>
+  </si>
+  <si>
+    <t>kɒnen</t>
+  </si>
+  <si>
+    <t>ketʰɒn</t>
+  </si>
+  <si>
+    <t>kɒsen</t>
+  </si>
+  <si>
+    <t>kuʁɒɻkim</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒjim</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰnim</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰnim</t>
+  </si>
+  <si>
+    <t>kɒrnim</t>
+  </si>
+  <si>
+    <t>kelnim</t>
+  </si>
+  <si>
+    <t>kutim</t>
+  </si>
+  <si>
+    <t>kɒnim</t>
+  </si>
+  <si>
+    <t>ketʰɒjim</t>
+  </si>
+  <si>
+    <t>kɒsim</t>
+  </si>
+  <si>
+    <t>kuʁɒɻkiɻ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒjiɻ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰniɻ</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰniɻ</t>
+  </si>
+  <si>
+    <t>kɒrniɻ</t>
+  </si>
+  <si>
+    <t>kelniɻ</t>
+  </si>
+  <si>
+    <t>kutiɻ</t>
+  </si>
+  <si>
+    <t>kɒniɻ</t>
+  </si>
+  <si>
+    <t>ketʰɒjiɻ</t>
+  </si>
+  <si>
+    <t>kɒsiɻ</t>
+  </si>
+  <si>
+    <t>kuʁɒɻkeɻ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒɻ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰneɻ</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰneɻ</t>
+  </si>
+  <si>
+    <t>kɒrneɻ</t>
+  </si>
+  <si>
+    <t>kelneɻ</t>
+  </si>
+  <si>
+    <t>kuteɻ</t>
+  </si>
+  <si>
+    <t>kɒneɻ</t>
+  </si>
+  <si>
+    <t>ketʰɒɻ</t>
+  </si>
+  <si>
+    <t>kɒseɻ</t>
+  </si>
+  <si>
+    <t>kuʁɒɻkiŋkʰ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒjiŋkʰ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰniŋkʰ</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰniŋkʰ</t>
+  </si>
+  <si>
+    <t>kɒrniŋkʰ</t>
+  </si>
+  <si>
+    <t>kelniŋkʰ</t>
+  </si>
+  <si>
+    <t>kutiŋkʰ</t>
+  </si>
+  <si>
+    <t>kɒniŋkʰ</t>
+  </si>
+  <si>
+    <t>ketʰɒjiŋkʰ</t>
+  </si>
+  <si>
+    <t>kɒsiŋkʰ</t>
+  </si>
+  <si>
+    <t>kuʁɒɻkikʰ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒjikʰ</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰnikʰ</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰnikʰ</t>
+  </si>
+  <si>
+    <t>kɒrnikʰ</t>
+  </si>
+  <si>
+    <t>kelnikʰ</t>
+  </si>
+  <si>
+    <t>kutikʰ</t>
+  </si>
+  <si>
+    <t>kɒnikʰ</t>
+  </si>
+  <si>
+    <t>ketʰɒjikʰ</t>
+  </si>
+  <si>
+    <t>kɒsikʰ</t>
+  </si>
+  <si>
+    <t>kuʁɒɻkin</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒnɒjin</t>
+  </si>
+  <si>
+    <t>kuɻɒχɒt͡sʰnin</t>
+  </si>
+  <si>
+    <t>kit͡ʃʰnin</t>
+  </si>
+  <si>
+    <t>kɒrnin</t>
+  </si>
+  <si>
+    <t>kelnin</t>
+  </si>
+  <si>
+    <t>kutin</t>
+  </si>
+  <si>
+    <t>kɒnin</t>
+  </si>
+  <si>
+    <t>ketʰɒjin</t>
+  </si>
+  <si>
+    <t>kɒsin</t>
   </si>
 </sst>
 </file>
@@ -12180,7 +12180,7 @@
   <dimension ref="A1:AD152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:XFD152"/>
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12535,7 +12535,7 @@
         <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>3854</v>
+        <v>3734</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>40</v>
@@ -12627,7 +12627,7 @@
         <v>67</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>3853</v>
+        <v>3733</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>68</v>
@@ -12719,7 +12719,7 @@
         <v>95</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>3855</v>
+        <v>3735</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>96</v>
@@ -13460,13 +13460,13 @@
         <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3586</v>
+        <v>3468</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3684</v>
+        <v>3566</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3685</v>
+        <v>3567</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>282</v>
@@ -13508,13 +13508,13 @@
         <v>294</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>3686</v>
+        <v>3568</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>3687</v>
+        <v>3569</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>3688</v>
+        <v>3570</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -13526,10 +13526,10 @@
         <v>296</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>3689</v>
+        <v>3571</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>3690</v>
+        <v>3572</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>297</v>
@@ -13609,7 +13609,7 @@
         <v>39</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>3854</v>
+        <v>3734</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>320</v>
@@ -13701,7 +13701,7 @@
         <v>348</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>3856</v>
+        <v>3736</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>349</v>
@@ -13787,13 +13787,13 @@
         <v>375</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>3691</v>
+        <v>3573</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>3857</v>
+        <v>3737</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>377</v>
@@ -13885,7 +13885,7 @@
         <v>405</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>3858</v>
+        <v>3738</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>406</v>
@@ -13977,7 +13977,7 @@
         <v>434</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>3859</v>
+        <v>3739</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>435</v>
@@ -14069,7 +14069,7 @@
         <v>463</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>3860</v>
+        <v>3740</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>464</v>
@@ -14161,7 +14161,7 @@
         <v>492</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>3861</v>
+        <v>3741</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>493</v>
@@ -14253,7 +14253,7 @@
         <v>521</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>3862</v>
+        <v>3742</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>522</v>
@@ -14339,13 +14339,13 @@
         <v>548</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>3692</v>
+        <v>3574</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>549</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>3863</v>
+        <v>3743</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>550</v>
@@ -14437,7 +14437,7 @@
         <v>578</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>3864</v>
+        <v>3744</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>579</v>
@@ -14529,7 +14529,7 @@
         <v>607</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>3865</v>
+        <v>3745</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>608</v>
@@ -14621,7 +14621,7 @@
         <v>636</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>3866</v>
+        <v>3746</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>637</v>
@@ -14713,7 +14713,7 @@
         <v>665</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>3867</v>
+        <v>3747</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>666</v>
@@ -14805,7 +14805,7 @@
         <v>694</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>3868</v>
+        <v>3748</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>695</v>
@@ -14897,7 +14897,7 @@
         <v>723</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>3869</v>
+        <v>3749</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>724</v>
@@ -14989,7 +14989,7 @@
         <v>752</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>3870</v>
+        <v>3750</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>753</v>
@@ -15081,7 +15081,7 @@
         <v>781</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>3871</v>
+        <v>3751</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>782</v>
@@ -15173,7 +15173,7 @@
         <v>752</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>3870</v>
+        <v>3750</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>809</v>
@@ -15265,7 +15265,7 @@
         <v>837</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>3872</v>
+        <v>3752</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>838</v>
@@ -15357,7 +15357,7 @@
         <v>866</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>3873</v>
+        <v>3753</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>867</v>
@@ -15449,7 +15449,7 @@
         <v>895</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>3874</v>
+        <v>3754</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>896</v>
@@ -15541,7 +15541,7 @@
         <v>924</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>3875</v>
+        <v>3755</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>925</v>
@@ -15633,7 +15633,7 @@
         <v>953</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>3876</v>
+        <v>3756</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>954</v>
@@ -15719,13 +15719,13 @@
         <v>980</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>3877</v>
+        <v>3757</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>3878</v>
+        <v>3758</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>3879</v>
+        <v>3759</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>981</v>
@@ -17980,85 +17980,85 @@
         <v>2234</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3805</v>
+        <v>3685</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3806</v>
+        <v>3686</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>2235</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>3807</v>
+        <v>3687</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3808</v>
+        <v>3688</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>3809</v>
+        <v>3689</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>3810</v>
+        <v>3690</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>3811</v>
+        <v>3691</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>3812</v>
+        <v>3692</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>3813</v>
+        <v>3693</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>3814</v>
+        <v>3694</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>3815</v>
+        <v>3695</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>3816</v>
+        <v>3696</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>3817</v>
+        <v>3697</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>3818</v>
+        <v>3698</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>3819</v>
+        <v>3699</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>3820</v>
+        <v>3700</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>3821</v>
+        <v>3701</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>3822</v>
+        <v>3702</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>3823</v>
+        <v>3703</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>3824</v>
+        <v>3704</v>
       </c>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1" t="s">
-        <v>3825</v>
+        <v>3705</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>3826</v>
+        <v>3706</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>3827</v>
+        <v>3707</v>
       </c>
       <c r="AC67" s="1" t="s">
         <v>2236</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>3828</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
@@ -18496,85 +18496,85 @@
         <v>2372</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3829</v>
+        <v>3709</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3830</v>
+        <v>3710</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>2373</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>3831</v>
+        <v>3711</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3832</v>
+        <v>3712</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>3833</v>
+        <v>3713</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>3834</v>
+        <v>3714</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>3835</v>
+        <v>3715</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>3836</v>
+        <v>3716</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>3837</v>
+        <v>3717</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>3838</v>
+        <v>3718</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>3839</v>
+        <v>3719</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>3840</v>
+        <v>3720</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>3841</v>
+        <v>3721</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>3842</v>
+        <v>3722</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>3843</v>
+        <v>3723</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>3844</v>
+        <v>3724</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>3845</v>
+        <v>3725</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>3846</v>
+        <v>3726</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>3847</v>
+        <v>3727</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>3848</v>
+        <v>3728</v>
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1" t="s">
-        <v>3849</v>
+        <v>3729</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>3850</v>
+        <v>3730</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>3851</v>
+        <v>3731</v>
       </c>
       <c r="AC73" s="1" t="s">
         <v>2374</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>3852</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
@@ -19018,13 +19018,13 @@
         <v>281</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>3586</v>
+        <v>3468</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>3684</v>
+        <v>3566</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>3685</v>
+        <v>3567</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>282</v>
@@ -19066,13 +19066,13 @@
         <v>294</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>3686</v>
+        <v>3568</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>3687</v>
+        <v>3569</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>3688</v>
+        <v>3570</v>
       </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
@@ -19084,10 +19084,10 @@
         <v>296</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>3689</v>
+        <v>3571</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>3690</v>
+        <v>3572</v>
       </c>
       <c r="AD79" s="1" t="s">
         <v>297</v>
@@ -19534,13 +19534,13 @@
         <v>2648</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>3693</v>
+        <v>3575</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>3694</v>
+        <v>3576</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3695</v>
+        <v>3577</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>2649</v>
@@ -19582,13 +19582,13 @@
         <v>2661</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>3696</v>
+        <v>3578</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>3697</v>
+        <v>3579</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>3698</v>
+        <v>3580</v>
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
@@ -19600,10 +19600,10 @@
         <v>2663</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>3699</v>
+        <v>3581</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>3700</v>
+        <v>3582</v>
       </c>
       <c r="AD85" s="1" t="s">
         <v>2664</v>
@@ -20901,7 +20901,7 @@
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>3585</v>
+        <v>3467</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>280</v>
@@ -20910,76 +20910,76 @@
         <v>281</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>3586</v>
+        <v>3468</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>3587</v>
+        <v>3469</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3588</v>
+        <v>3470</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>3589</v>
+        <v>3471</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>3590</v>
+        <v>3472</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>3591</v>
+        <v>3473</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>3592</v>
+        <v>3474</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>3593</v>
+        <v>3475</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>3594</v>
+        <v>3476</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>3595</v>
+        <v>3477</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>3596</v>
+        <v>3478</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>3597</v>
+        <v>3479</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>3598</v>
+        <v>3480</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>3599</v>
+        <v>3481</v>
       </c>
       <c r="R101" s="1" t="s">
         <v>2818</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>3600</v>
+        <v>3482</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>3601</v>
+        <v>3483</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>3602</v>
+        <v>3484</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>3603</v>
+        <v>3485</v>
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1" t="s">
-        <v>3604</v>
+        <v>3486</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>3605</v>
+        <v>3487</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>3606</v>
+        <v>3488</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>3607</v>
+        <v>3489</v>
       </c>
       <c r="AD101" s="1" t="s">
         <v>297</v>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>3608</v>
+        <v>3490</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>2539</v>
@@ -20996,61 +20996,61 @@
         <v>2540</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>3609</v>
+        <v>3491</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>3610</v>
+        <v>3492</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>3611</v>
+        <v>3493</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>3612</v>
+        <v>3494</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>3613</v>
+        <v>3495</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>3614</v>
+        <v>3496</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>3615</v>
+        <v>3497</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>3616</v>
+        <v>3498</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>3617</v>
+        <v>3499</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>3618</v>
+        <v>3500</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>3619</v>
+        <v>3501</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>3620</v>
+        <v>3502</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>3621</v>
+        <v>3503</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>3622</v>
+        <v>3504</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>3623</v>
+        <v>3505</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>3624</v>
+        <v>3506</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>3625</v>
+        <v>3507</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>3626</v>
+        <v>3508</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>3627</v>
+        <v>3509</v>
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
@@ -21062,10 +21062,10 @@
         <v>2561</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>3628</v>
+        <v>3510</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>3629</v>
+        <v>3511</v>
       </c>
       <c r="AD102" s="1" t="s">
         <v>2564</v>
@@ -21073,179 +21073,179 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>3630</v>
+        <v>3512</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3631</v>
+        <v>3513</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3632</v>
+        <v>3514</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>3633</v>
+        <v>3515</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>3634</v>
+        <v>3516</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>3635</v>
+        <v>3517</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>3636</v>
+        <v>3518</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>3637</v>
+        <v>3519</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>3638</v>
+        <v>3520</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>3639</v>
+        <v>3521</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>3640</v>
+        <v>3522</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>3641</v>
+        <v>3523</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>3642</v>
+        <v>3524</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>3643</v>
+        <v>3525</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>3644</v>
+        <v>3526</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>3645</v>
+        <v>3527</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>3646</v>
+        <v>3528</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>3647</v>
+        <v>3529</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>3648</v>
+        <v>3530</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>3649</v>
+        <v>3531</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>3650</v>
+        <v>3532</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>3651</v>
+        <v>3533</v>
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1" t="s">
-        <v>3652</v>
+        <v>3534</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>3653</v>
+        <v>3535</v>
       </c>
       <c r="AB103" s="1" t="s">
-        <v>3654</v>
+        <v>3536</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>3655</v>
+        <v>3537</v>
       </c>
       <c r="AD103" s="1" t="s">
-        <v>3656</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>3657</v>
+        <v>3539</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3658</v>
+        <v>3540</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>3659</v>
+        <v>3541</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>3660</v>
+        <v>3542</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>3661</v>
+        <v>3543</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>3662</v>
+        <v>3544</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>3663</v>
+        <v>3545</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>3664</v>
+        <v>3546</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>3665</v>
+        <v>3547</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>3666</v>
+        <v>3548</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>3667</v>
+        <v>3549</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>3668</v>
+        <v>3550</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>3669</v>
+        <v>3551</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>3670</v>
+        <v>3552</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>3671</v>
+        <v>3553</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>3672</v>
+        <v>3554</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>3673</v>
+        <v>3555</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>3674</v>
+        <v>3556</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>3675</v>
+        <v>3557</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>3676</v>
+        <v>3558</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>3677</v>
+        <v>3559</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>3678</v>
+        <v>3560</v>
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1" t="s">
-        <v>3679</v>
+        <v>3561</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>3680</v>
+        <v>3562</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>3681</v>
+        <v>3563</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>3682</v>
+        <v>3564</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>3683</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>3880</v>
+        <v>3760</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>986</v>
@@ -21331,7 +21331,7 @@
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>3881</v>
+        <v>3761</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1012</v>
@@ -21417,7 +21417,7 @@
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>3882</v>
+        <v>3762</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1038</v>
@@ -21503,7 +21503,7 @@
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>3883</v>
+        <v>3763</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1064</v>
@@ -21589,7 +21589,7 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>3884</v>
+        <v>3764</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1090</v>
@@ -21675,7 +21675,7 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>3885</v>
+        <v>3765</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1116</v>
@@ -21761,7 +21761,7 @@
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>3886</v>
+        <v>3766</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1142</v>
@@ -21847,7 +21847,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>3887</v>
+        <v>3767</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1168</v>
@@ -21933,7 +21933,7 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>3888</v>
+        <v>3768</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1194</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>3889</v>
+        <v>3769</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1220</v>
@@ -22105,7 +22105,7 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>3890</v>
+        <v>3770</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1246</v>
@@ -22191,7 +22191,7 @@
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>3891</v>
+        <v>3771</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1272</v>
@@ -22277,7 +22277,7 @@
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>3892</v>
+        <v>3784</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1298</v>
@@ -22363,7 +22363,7 @@
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>3893</v>
+        <v>3785</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1324</v>
@@ -22449,7 +22449,7 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>3894</v>
+        <v>3786</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1350</v>
@@ -22535,7 +22535,7 @@
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>3895</v>
+        <v>3787</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1376</v>
@@ -22621,7 +22621,7 @@
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>3896</v>
+        <v>3788</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1402</v>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>3897</v>
+        <v>3789</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1428</v>
@@ -22793,7 +22793,7 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>3898</v>
+        <v>3790</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1454</v>
@@ -22879,7 +22879,7 @@
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>3899</v>
+        <v>3791</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1480</v>
@@ -22965,7 +22965,7 @@
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>3900</v>
+        <v>3792</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1506</v>
@@ -23051,7 +23051,7 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>3901</v>
+        <v>3793</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1532</v>
@@ -23137,7 +23137,7 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>3902</v>
+        <v>3794</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1558</v>
@@ -23223,7 +23223,7 @@
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>3903</v>
+        <v>3795</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1584</v>
@@ -23309,2066 +23309,2066 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>3904</v>
+        <v>3772</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>3065</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>3066</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>3067</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>3068</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="H129" s="1" t="s">
+        <v>3810</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>3069</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="J129" s="1" t="s">
+        <v>3811</v>
+      </c>
+      <c r="K129" s="1" t="s">
         <v>3070</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="L129" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="M129" s="1" t="s">
         <v>3071</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="N129" s="1" t="s">
+        <v>3813</v>
+      </c>
+      <c r="O129" s="1" t="s">
         <v>3072</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="P129" s="1" t="s">
+        <v>3814</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="R129" s="1" t="s">
         <v>3073</v>
       </c>
-      <c r="K129" s="1" t="s">
+      <c r="S129" s="1" t="s">
         <v>3074</v>
       </c>
-      <c r="L129" s="1" t="s">
+      <c r="T129" s="1" t="s">
+        <v>3816</v>
+      </c>
+      <c r="U129" s="1" t="s">
         <v>3075</v>
       </c>
-      <c r="M129" s="1" t="s">
+      <c r="V129" s="1" t="s">
         <v>3076</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>3077</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>3078</v>
-      </c>
-      <c r="P129" s="1" t="s">
-        <v>3079</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>3080</v>
-      </c>
-      <c r="R129" s="1" t="s">
-        <v>3081</v>
-      </c>
-      <c r="S129" s="1" t="s">
-        <v>3082</v>
-      </c>
-      <c r="T129" s="1" t="s">
-        <v>3083</v>
-      </c>
-      <c r="U129" s="1" t="s">
-        <v>3084</v>
-      </c>
-      <c r="V129" s="1" t="s">
-        <v>3085</v>
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1" t="s">
-        <v>3086</v>
+        <v>3077</v>
       </c>
       <c r="AA129" s="1" t="s">
-        <v>3087</v>
+        <v>3817</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>3088</v>
+        <v>3078</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>3089</v>
+        <v>3079</v>
       </c>
       <c r="AD129" s="1" t="s">
-        <v>3090</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>3905</v>
+        <v>3773</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>3822</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>3824</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>3825</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="T130" s="1" t="s">
+        <v>3826</v>
+      </c>
+      <c r="U130" s="1" t="s">
         <v>3091</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="V130" s="1" t="s">
         <v>3092</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>3093</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>3094</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>3095</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>3096</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>3098</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>3099</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>3100</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>3101</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>3102</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>3103</v>
-      </c>
-      <c r="O130" s="1" t="s">
-        <v>3104</v>
-      </c>
-      <c r="P130" s="1" t="s">
-        <v>3105</v>
-      </c>
-      <c r="Q130" s="1" t="s">
-        <v>3106</v>
-      </c>
-      <c r="R130" s="1" t="s">
-        <v>3107</v>
-      </c>
-      <c r="S130" s="1" t="s">
-        <v>3108</v>
-      </c>
-      <c r="T130" s="1" t="s">
-        <v>3109</v>
-      </c>
-      <c r="U130" s="1" t="s">
-        <v>3110</v>
-      </c>
-      <c r="V130" s="1" t="s">
-        <v>3111</v>
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1" t="s">
-        <v>3112</v>
+        <v>3093</v>
       </c>
       <c r="AA130" s="1" t="s">
-        <v>3113</v>
+        <v>3827</v>
       </c>
       <c r="AB130" s="1" t="s">
-        <v>3114</v>
+        <v>3094</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>3115</v>
+        <v>3095</v>
       </c>
       <c r="AD130" s="1" t="s">
-        <v>3116</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>3906</v>
+        <v>3774</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>3117</v>
+        <v>3097</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>3118</v>
+        <v>3828</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>3709</v>
+        <v>3591</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>3710</v>
+        <v>3592</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>3711</v>
+        <v>3829</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>3119</v>
+        <v>3098</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>3120</v>
+        <v>3830</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>3121</v>
+        <v>3099</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>3122</v>
+        <v>3831</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>3123</v>
+        <v>3100</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>3124</v>
+        <v>3832</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>3125</v>
+        <v>3101</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>3126</v>
+        <v>3833</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>3127</v>
+        <v>3102</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>3128</v>
+        <v>3834</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>3129</v>
+        <v>3835</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>3130</v>
+        <v>3103</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>3131</v>
+        <v>3104</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>3712</v>
+        <v>3836</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>3713</v>
+        <v>3593</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>3714</v>
+        <v>3594</v>
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1" t="s">
-        <v>3132</v>
+        <v>3105</v>
       </c>
       <c r="AA131" s="1" t="s">
-        <v>3133</v>
+        <v>3837</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>3715</v>
+        <v>3595</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>3716</v>
+        <v>3596</v>
       </c>
       <c r="AD131" s="1" t="s">
-        <v>3134</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>3907</v>
+        <v>3775</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>3135</v>
+        <v>3107</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>3136</v>
+        <v>3838</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>3137</v>
+        <v>3108</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>3138</v>
+        <v>3109</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>3139</v>
+        <v>3839</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>3140</v>
+        <v>3110</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>3141</v>
+        <v>3840</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>3142</v>
+        <v>3111</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>3143</v>
+        <v>3841</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>3144</v>
+        <v>3112</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>3145</v>
+        <v>3842</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>3146</v>
+        <v>3113</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>3147</v>
+        <v>3843</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>3148</v>
+        <v>3114</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>3149</v>
+        <v>3844</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>3150</v>
+        <v>3845</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>3151</v>
+        <v>3115</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>3152</v>
+        <v>3116</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>3153</v>
+        <v>3846</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>3154</v>
+        <v>3117</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>3155</v>
+        <v>3118</v>
       </c>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
       <c r="Z132" s="1" t="s">
-        <v>3156</v>
+        <v>3119</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>3157</v>
+        <v>3847</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>3158</v>
+        <v>3120</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>3159</v>
+        <v>3121</v>
       </c>
       <c r="AD132" s="1" t="s">
-        <v>3160</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>3908</v>
+        <v>3776</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>3161</v>
+        <v>3123</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>3162</v>
+        <v>3848</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>3163</v>
+        <v>3124</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>3164</v>
+        <v>3125</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>3165</v>
+        <v>3849</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>3166</v>
+        <v>3126</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>3167</v>
+        <v>3850</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>3168</v>
+        <v>3127</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>3169</v>
+        <v>3851</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>3170</v>
+        <v>3128</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>3171</v>
+        <v>3852</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>3172</v>
+        <v>3129</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>3173</v>
+        <v>3853</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>3174</v>
+        <v>3130</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>3175</v>
+        <v>3854</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>3176</v>
+        <v>3855</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>3177</v>
+        <v>3131</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>3178</v>
+        <v>3132</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>3179</v>
+        <v>3856</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>3180</v>
+        <v>3133</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>3181</v>
+        <v>3134</v>
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1" t="s">
-        <v>3182</v>
+        <v>3135</v>
       </c>
       <c r="AA133" s="1" t="s">
-        <v>3183</v>
+        <v>3857</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>3184</v>
+        <v>3136</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>3185</v>
+        <v>3137</v>
       </c>
       <c r="AD133" s="1" t="s">
-        <v>3186</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>3909</v>
+        <v>3777</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>3187</v>
+        <v>3139</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>3188</v>
+        <v>3858</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>3189</v>
+        <v>3140</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>3190</v>
+        <v>3141</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>3191</v>
+        <v>3859</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>3192</v>
+        <v>3142</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>3193</v>
+        <v>3860</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>3194</v>
+        <v>3143</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>3195</v>
+        <v>3861</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>3196</v>
+        <v>3144</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>3197</v>
+        <v>3862</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>3198</v>
+        <v>3145</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>3199</v>
+        <v>3863</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>3200</v>
+        <v>3146</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>3201</v>
+        <v>3864</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>3202</v>
+        <v>3865</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>3203</v>
+        <v>3147</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>3204</v>
+        <v>3148</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>3205</v>
+        <v>3866</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>3206</v>
+        <v>3149</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>3207</v>
+        <v>3150</v>
       </c>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1" t="s">
-        <v>3208</v>
+        <v>3151</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>3209</v>
+        <v>3867</v>
       </c>
       <c r="AB134" s="1" t="s">
-        <v>3210</v>
+        <v>3152</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>3211</v>
+        <v>3153</v>
       </c>
       <c r="AD134" s="1" t="s">
-        <v>3212</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>3910</v>
+        <v>3778</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>3213</v>
+        <v>3155</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>3214</v>
+        <v>3156</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>3765</v>
+        <v>3645</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>3766</v>
+        <v>3646</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>3767</v>
+        <v>3647</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>3215</v>
+        <v>3157</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>3216</v>
+        <v>3158</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>3217</v>
+        <v>3159</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>3218</v>
+        <v>3160</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>3219</v>
+        <v>3161</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>3220</v>
+        <v>3162</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>3221</v>
+        <v>3163</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>3222</v>
+        <v>3164</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>3223</v>
+        <v>3165</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>3224</v>
+        <v>3166</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>3225</v>
+        <v>3167</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>3226</v>
+        <v>3168</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>3227</v>
+        <v>3169</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>3768</v>
+        <v>3648</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>3769</v>
+        <v>3649</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>3770</v>
+        <v>3650</v>
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1" t="s">
-        <v>3228</v>
+        <v>3170</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>3229</v>
+        <v>3171</v>
       </c>
       <c r="AB135" s="1" t="s">
-        <v>3771</v>
+        <v>3651</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>3772</v>
+        <v>3652</v>
       </c>
       <c r="AD135" s="1" t="s">
-        <v>3230</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>3911</v>
+        <v>3779</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>3231</v>
+        <v>3173</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>3232</v>
+        <v>3174</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>3773</v>
+        <v>3653</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>3774</v>
+        <v>3654</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>3775</v>
+        <v>3655</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>3233</v>
+        <v>3175</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>3234</v>
+        <v>3176</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>3235</v>
+        <v>3177</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>3236</v>
+        <v>3178</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>3237</v>
+        <v>3179</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>3238</v>
+        <v>3180</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>3239</v>
+        <v>3181</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>3240</v>
+        <v>3182</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>3241</v>
+        <v>3183</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>3242</v>
+        <v>3184</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>3243</v>
+        <v>3185</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>3244</v>
+        <v>3186</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>3245</v>
+        <v>3187</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>3776</v>
+        <v>3656</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>3777</v>
+        <v>3657</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>3778</v>
+        <v>3658</v>
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1" t="s">
-        <v>3246</v>
+        <v>3188</v>
       </c>
       <c r="AA136" s="1" t="s">
-        <v>3247</v>
+        <v>3189</v>
       </c>
       <c r="AB136" s="1" t="s">
-        <v>3779</v>
+        <v>3659</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>3780</v>
+        <v>3660</v>
       </c>
       <c r="AD136" s="1" t="s">
-        <v>3248</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>3912</v>
+        <v>3780</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>3249</v>
+        <v>3191</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>3250</v>
+        <v>3192</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>3701</v>
+        <v>3583</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>3702</v>
+        <v>3584</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>3703</v>
+        <v>3585</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>3251</v>
+        <v>3193</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>3252</v>
+        <v>3194</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>3253</v>
+        <v>3195</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>3254</v>
+        <v>3196</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>3255</v>
+        <v>3197</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>3256</v>
+        <v>3198</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>3257</v>
+        <v>3199</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>3258</v>
+        <v>3200</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>3259</v>
+        <v>3201</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>3260</v>
+        <v>3202</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>3261</v>
+        <v>3203</v>
       </c>
       <c r="R137" s="1" t="s">
-        <v>3262</v>
+        <v>3204</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>3263</v>
+        <v>3205</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>3704</v>
+        <v>3586</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>3705</v>
+        <v>3587</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>3706</v>
+        <v>3588</v>
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1" t="s">
-        <v>3264</v>
+        <v>3206</v>
       </c>
       <c r="AA137" s="1" t="s">
-        <v>3265</v>
+        <v>3207</v>
       </c>
       <c r="AB137" s="1" t="s">
-        <v>3707</v>
+        <v>3589</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>3708</v>
+        <v>3590</v>
       </c>
       <c r="AD137" s="1" t="s">
-        <v>3266</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>3913</v>
+        <v>3781</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>3267</v>
+        <v>3209</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>3268</v>
+        <v>3210</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>3781</v>
+        <v>3661</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>3782</v>
+        <v>3662</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>3783</v>
+        <v>3663</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>3269</v>
+        <v>3211</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>3270</v>
+        <v>3212</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>3271</v>
+        <v>3213</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>3272</v>
+        <v>3214</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>3273</v>
+        <v>3215</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>3274</v>
+        <v>3216</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>3275</v>
+        <v>3217</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>3276</v>
+        <v>3218</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>3277</v>
+        <v>3219</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>3278</v>
+        <v>3220</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>3279</v>
+        <v>3221</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>3280</v>
+        <v>3222</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>3281</v>
+        <v>3223</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>3784</v>
+        <v>3664</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>3785</v>
+        <v>3665</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>3786</v>
+        <v>3666</v>
       </c>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1" t="s">
-        <v>3282</v>
+        <v>3224</v>
       </c>
       <c r="AA138" s="1" t="s">
-        <v>3283</v>
+        <v>3225</v>
       </c>
       <c r="AB138" s="1" t="s">
-        <v>3787</v>
+        <v>3667</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>3788</v>
+        <v>3668</v>
       </c>
       <c r="AD138" s="1" t="s">
-        <v>3284</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>3914</v>
+        <v>3782</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>3285</v>
+        <v>3227</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>3286</v>
+        <v>3228</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>3789</v>
+        <v>3669</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>3790</v>
+        <v>3670</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>3791</v>
+        <v>3671</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>3287</v>
+        <v>3229</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>3288</v>
+        <v>3230</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>3289</v>
+        <v>3231</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>3290</v>
+        <v>3232</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>3291</v>
+        <v>3233</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>3292</v>
+        <v>3234</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>3293</v>
+        <v>3235</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>3294</v>
+        <v>3236</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>3295</v>
+        <v>3237</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>3296</v>
+        <v>3238</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>3297</v>
+        <v>3239</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>3298</v>
+        <v>3240</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>3299</v>
+        <v>3241</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>3792</v>
+        <v>3672</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>3793</v>
+        <v>3673</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>3794</v>
+        <v>3674</v>
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1" t="s">
-        <v>3300</v>
+        <v>3242</v>
       </c>
       <c r="AA139" s="1" t="s">
-        <v>3301</v>
+        <v>3243</v>
       </c>
       <c r="AB139" s="1" t="s">
-        <v>3795</v>
+        <v>3675</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>3796</v>
+        <v>3676</v>
       </c>
       <c r="AD139" s="1" t="s">
-        <v>3302</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>3915</v>
+        <v>3783</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>3303</v>
+        <v>3245</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>3304</v>
+        <v>3246</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>3797</v>
+        <v>3677</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>3798</v>
+        <v>3678</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>3799</v>
+        <v>3679</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>3305</v>
+        <v>3247</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>3306</v>
+        <v>3248</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>3307</v>
+        <v>3249</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>3308</v>
+        <v>3250</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>3309</v>
+        <v>3251</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>3310</v>
+        <v>3252</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>3311</v>
+        <v>3253</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>3312</v>
+        <v>3254</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>3313</v>
+        <v>3255</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>3314</v>
+        <v>3256</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>3315</v>
+        <v>3257</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>3316</v>
+        <v>3258</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>3317</v>
+        <v>3259</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>3800</v>
+        <v>3680</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>3801</v>
+        <v>3681</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>3802</v>
+        <v>3682</v>
       </c>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1" t="s">
-        <v>3318</v>
+        <v>3260</v>
       </c>
       <c r="AA140" s="1" t="s">
-        <v>3319</v>
+        <v>3261</v>
       </c>
       <c r="AB140" s="1" t="s">
-        <v>3803</v>
+        <v>3683</v>
       </c>
       <c r="AC140" s="1" t="s">
-        <v>3804</v>
+        <v>3684</v>
       </c>
       <c r="AD140" s="1" t="s">
-        <v>3320</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>3916</v>
+        <v>3796</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3321</v>
+        <v>3263</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>3322</v>
+        <v>3868</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>3323</v>
+        <v>3264</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>3324</v>
+        <v>3265</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>3325</v>
+        <v>3869</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>3326</v>
+        <v>3266</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>3327</v>
+        <v>3870</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>3328</v>
+        <v>3267</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>3329</v>
+        <v>3871</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>3330</v>
+        <v>3268</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>3331</v>
+        <v>3872</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>3332</v>
+        <v>3269</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>3333</v>
+        <v>3873</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>3334</v>
+        <v>3270</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>3335</v>
+        <v>3874</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>3336</v>
+        <v>3875</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>3337</v>
+        <v>3271</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>3338</v>
+        <v>3272</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>3339</v>
+        <v>3876</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>3340</v>
+        <v>3273</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>3341</v>
+        <v>3274</v>
       </c>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1" t="s">
-        <v>3342</v>
+        <v>3275</v>
       </c>
       <c r="AA141" s="1" t="s">
-        <v>3343</v>
+        <v>3877</v>
       </c>
       <c r="AB141" s="1" t="s">
-        <v>3344</v>
+        <v>3276</v>
       </c>
       <c r="AC141" s="1" t="s">
-        <v>3345</v>
+        <v>3277</v>
       </c>
       <c r="AD141" s="1" t="s">
-        <v>3346</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>3917</v>
+        <v>3797</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>3347</v>
+        <v>3279</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>3348</v>
+        <v>3878</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>3349</v>
+        <v>3280</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>3350</v>
+        <v>3281</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>3351</v>
+        <v>3879</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>3352</v>
+        <v>3282</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>3353</v>
+        <v>3880</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>3354</v>
+        <v>3283</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>3355</v>
+        <v>3881</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>3356</v>
+        <v>3284</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>3357</v>
+        <v>3882</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>3358</v>
+        <v>3285</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>3359</v>
+        <v>3883</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>3360</v>
+        <v>3286</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>3361</v>
+        <v>3884</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>3362</v>
+        <v>3885</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>3363</v>
+        <v>3287</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>3364</v>
+        <v>3288</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>3365</v>
+        <v>3886</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>3366</v>
+        <v>3289</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>3367</v>
+        <v>3290</v>
       </c>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="Z142" s="1" t="s">
-        <v>3368</v>
+        <v>3291</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>3369</v>
+        <v>3887</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>3370</v>
+        <v>3292</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>3371</v>
+        <v>3293</v>
       </c>
       <c r="AD142" s="1" t="s">
-        <v>3372</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>3918</v>
+        <v>3798</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>3373</v>
+        <v>3295</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>3374</v>
+        <v>3888</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>3375</v>
+        <v>3296</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>3376</v>
+        <v>3297</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>3377</v>
+        <v>3889</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>3378</v>
+        <v>3298</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>3379</v>
+        <v>3890</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>3380</v>
+        <v>3299</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>3381</v>
+        <v>3891</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>3382</v>
+        <v>3300</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>3383</v>
+        <v>3892</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>3384</v>
+        <v>3301</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>3385</v>
+        <v>3893</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>3386</v>
+        <v>3302</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>3387</v>
+        <v>3894</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>3388</v>
+        <v>3895</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>3389</v>
+        <v>3303</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>3390</v>
+        <v>3304</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>3391</v>
+        <v>3896</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>3392</v>
+        <v>3305</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>3393</v>
+        <v>3306</v>
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1" t="s">
-        <v>3394</v>
+        <v>3307</v>
       </c>
       <c r="AA143" s="1" t="s">
-        <v>3395</v>
+        <v>3897</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>3396</v>
+        <v>3308</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>3397</v>
+        <v>3309</v>
       </c>
       <c r="AD143" s="1" t="s">
-        <v>3398</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>3919</v>
+        <v>3799</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>3399</v>
+        <v>3311</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>3400</v>
+        <v>3898</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>3401</v>
+        <v>3312</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>3402</v>
+        <v>3313</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>3403</v>
+        <v>3899</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>3404</v>
+        <v>3314</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>3405</v>
+        <v>3900</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>3406</v>
+        <v>3315</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>3407</v>
+        <v>3901</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>3408</v>
+        <v>3316</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>3409</v>
+        <v>3902</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>3410</v>
+        <v>3317</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>3411</v>
+        <v>3903</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>3412</v>
+        <v>3318</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>3413</v>
+        <v>3904</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>3414</v>
+        <v>3905</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>3415</v>
+        <v>3319</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>3416</v>
+        <v>3320</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>3417</v>
+        <v>3906</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>3418</v>
+        <v>3321</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>3419</v>
+        <v>3322</v>
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
       <c r="Z144" s="1" t="s">
-        <v>3420</v>
+        <v>3323</v>
       </c>
       <c r="AA144" s="1" t="s">
-        <v>3421</v>
+        <v>3907</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>3422</v>
+        <v>3324</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>3423</v>
+        <v>3325</v>
       </c>
       <c r="AD144" s="1" t="s">
-        <v>3424</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>3920</v>
+        <v>3800</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>3425</v>
+        <v>3327</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>3426</v>
+        <v>3908</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>3427</v>
+        <v>3328</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>3428</v>
+        <v>3329</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>3429</v>
+        <v>3909</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>3430</v>
+        <v>3330</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>3431</v>
+        <v>3910</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>3432</v>
+        <v>3331</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>3433</v>
+        <v>3911</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>3434</v>
+        <v>3332</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>3435</v>
+        <v>3912</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>3436</v>
+        <v>3333</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>3437</v>
+        <v>3913</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>3438</v>
+        <v>3334</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>3439</v>
+        <v>3914</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>3440</v>
+        <v>3915</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>3441</v>
+        <v>3335</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>3442</v>
+        <v>3336</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>3443</v>
+        <v>3916</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>3444</v>
+        <v>3337</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>3445</v>
+        <v>3338</v>
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1" t="s">
-        <v>3446</v>
+        <v>3339</v>
       </c>
       <c r="AA145" s="1" t="s">
-        <v>3447</v>
+        <v>3917</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>3448</v>
+        <v>3340</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>3449</v>
+        <v>3341</v>
       </c>
       <c r="AD145" s="1" t="s">
-        <v>3450</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>3919</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>3921</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>3451</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>3452</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>3453</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>3454</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>3455</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>3456</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>3457</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>3458</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>3459</v>
-      </c>
       <c r="K146" s="1" t="s">
-        <v>3460</v>
+        <v>3348</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>3461</v>
+        <v>3922</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>3462</v>
+        <v>3349</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>3463</v>
+        <v>3923</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>3464</v>
+        <v>3350</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>3465</v>
+        <v>3924</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>3466</v>
+        <v>3925</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>3467</v>
+        <v>3351</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>3468</v>
+        <v>3352</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>3469</v>
+        <v>3926</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>3470</v>
+        <v>3353</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>3471</v>
+        <v>3354</v>
       </c>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
       <c r="Z146" s="1" t="s">
-        <v>3472</v>
+        <v>3355</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>3473</v>
+        <v>3927</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>3474</v>
+        <v>3356</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>3475</v>
+        <v>3357</v>
       </c>
       <c r="AD146" s="1" t="s">
-        <v>3476</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>3922</v>
+        <v>3802</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>3477</v>
+        <v>3359</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>3478</v>
+        <v>3360</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>3717</v>
+        <v>3597</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>3718</v>
+        <v>3598</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>3719</v>
+        <v>3599</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>3479</v>
+        <v>3361</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>3480</v>
+        <v>3362</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>3481</v>
+        <v>3363</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>3482</v>
+        <v>3364</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>3483</v>
+        <v>3365</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>3484</v>
+        <v>3366</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>3485</v>
+        <v>3367</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>3486</v>
+        <v>3368</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>3487</v>
+        <v>3369</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>3488</v>
+        <v>3370</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>3489</v>
+        <v>3371</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>3490</v>
+        <v>3372</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>3491</v>
+        <v>3373</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>3720</v>
+        <v>3600</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>3721</v>
+        <v>3601</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>3722</v>
+        <v>3602</v>
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1" t="s">
-        <v>3492</v>
+        <v>3374</v>
       </c>
       <c r="AA147" s="1" t="s">
-        <v>3493</v>
+        <v>3375</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>3723</v>
+        <v>3603</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>3724</v>
+        <v>3604</v>
       </c>
       <c r="AD147" s="1" t="s">
-        <v>3494</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>3923</v>
+        <v>3803</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>3495</v>
+        <v>3377</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>3496</v>
+        <v>3378</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>3725</v>
+        <v>3605</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>3726</v>
+        <v>3606</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>3727</v>
+        <v>3607</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>3497</v>
+        <v>3379</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>3498</v>
+        <v>3380</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>3499</v>
+        <v>3381</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>3500</v>
+        <v>3382</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>3501</v>
+        <v>3383</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>3502</v>
+        <v>3384</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>3503</v>
+        <v>3385</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>3504</v>
+        <v>3386</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>3505</v>
+        <v>3387</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>3506</v>
+        <v>3388</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>3507</v>
+        <v>3389</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>3508</v>
+        <v>3390</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>3509</v>
+        <v>3391</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>3728</v>
+        <v>3608</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>3729</v>
+        <v>3609</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>3730</v>
+        <v>3610</v>
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
       <c r="Z148" s="1" t="s">
-        <v>3510</v>
+        <v>3392</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>3511</v>
+        <v>3393</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>3731</v>
+        <v>3611</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>3732</v>
+        <v>3612</v>
       </c>
       <c r="AD148" s="1" t="s">
-        <v>3512</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>3924</v>
+        <v>3804</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>3513</v>
+        <v>3395</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>3514</v>
+        <v>3396</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>3733</v>
+        <v>3613</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>3734</v>
+        <v>3614</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>3735</v>
+        <v>3615</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>3515</v>
+        <v>3397</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>3516</v>
+        <v>3398</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>3517</v>
+        <v>3399</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>3518</v>
+        <v>3400</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>3519</v>
+        <v>3401</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>3520</v>
+        <v>3402</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>3521</v>
+        <v>3403</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>3522</v>
+        <v>3404</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>3523</v>
+        <v>3405</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>3524</v>
+        <v>3406</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>3525</v>
+        <v>3407</v>
       </c>
       <c r="R149" s="1" t="s">
-        <v>3526</v>
+        <v>3408</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>3527</v>
+        <v>3409</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>3736</v>
+        <v>3616</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>3737</v>
+        <v>3617</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>3738</v>
+        <v>3618</v>
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1" t="s">
-        <v>3528</v>
+        <v>3410</v>
       </c>
       <c r="AA149" s="1" t="s">
-        <v>3529</v>
+        <v>3411</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>3739</v>
+        <v>3619</v>
       </c>
       <c r="AC149" s="1" t="s">
-        <v>3740</v>
+        <v>3620</v>
       </c>
       <c r="AD149" s="1" t="s">
-        <v>3530</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>3925</v>
+        <v>3805</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>3531</v>
+        <v>3413</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>3532</v>
+        <v>3414</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>3741</v>
+        <v>3621</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>3742</v>
+        <v>3622</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>3743</v>
+        <v>3623</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>3533</v>
+        <v>3415</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>3534</v>
+        <v>3416</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>3535</v>
+        <v>3417</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>3536</v>
+        <v>3418</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>3537</v>
+        <v>3419</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>3538</v>
+        <v>3420</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>3539</v>
+        <v>3421</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>3540</v>
+        <v>3422</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>3541</v>
+        <v>3423</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>3542</v>
+        <v>3424</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>3543</v>
+        <v>3425</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>3544</v>
+        <v>3426</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>3545</v>
+        <v>3427</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>3744</v>
+        <v>3624</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>3745</v>
+        <v>3625</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>3746</v>
+        <v>3626</v>
       </c>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
       <c r="Z150" s="1" t="s">
-        <v>3546</v>
+        <v>3428</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>3547</v>
+        <v>3429</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>3747</v>
+        <v>3627</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>3748</v>
+        <v>3628</v>
       </c>
       <c r="AD150" s="1" t="s">
-        <v>3548</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>3926</v>
+        <v>3806</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>3549</v>
+        <v>3431</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>3550</v>
+        <v>3432</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>3749</v>
+        <v>3629</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>3750</v>
+        <v>3630</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>3751</v>
+        <v>3631</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>3551</v>
+        <v>3433</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>3552</v>
+        <v>3434</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>3553</v>
+        <v>3435</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>3554</v>
+        <v>3436</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>3555</v>
+        <v>3437</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>3556</v>
+        <v>3438</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>3557</v>
+        <v>3439</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>3558</v>
+        <v>3440</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>3559</v>
+        <v>3441</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>3560</v>
+        <v>3442</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>3561</v>
+        <v>3443</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>3562</v>
+        <v>3444</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>3563</v>
+        <v>3445</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>3752</v>
+        <v>3632</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>3753</v>
+        <v>3633</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>3754</v>
+        <v>3634</v>
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1" t="s">
-        <v>3564</v>
+        <v>3446</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>3565</v>
+        <v>3447</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>3755</v>
+        <v>3635</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>3756</v>
+        <v>3636</v>
       </c>
       <c r="AD151" s="1" t="s">
-        <v>3566</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>3927</v>
+        <v>3807</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>3567</v>
+        <v>3449</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>3568</v>
+        <v>3450</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>3757</v>
+        <v>3637</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>3758</v>
+        <v>3638</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>3759</v>
+        <v>3639</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>3569</v>
+        <v>3451</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>3570</v>
+        <v>3452</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>3571</v>
+        <v>3453</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>3572</v>
+        <v>3454</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>3573</v>
+        <v>3455</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>3574</v>
+        <v>3456</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>3575</v>
+        <v>3457</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>3576</v>
+        <v>3458</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>3577</v>
+        <v>3459</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>3578</v>
+        <v>3460</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>3579</v>
+        <v>3461</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>3580</v>
+        <v>3462</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>3581</v>
+        <v>3463</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>3760</v>
+        <v>3640</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>3761</v>
+        <v>3641</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>3762</v>
+        <v>3642</v>
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1" t="s">
-        <v>3582</v>
+        <v>3464</v>
       </c>
       <c r="AA152" s="1" t="s">
-        <v>3583</v>
+        <v>3465</v>
       </c>
       <c r="AB152" s="1" t="s">
-        <v>3763</v>
+        <v>3643</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>3764</v>
+        <v>3644</v>
       </c>
       <c r="AD152" s="1" t="s">
-        <v>3584</v>
+        <v>3466</v>
       </c>
     </row>
   </sheetData>

--- a/VerbConjugation/XLSX/Trans.xlsx
+++ b/VerbConjugation/XLSX/Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF8E1E4-2A21-9B46-A407-E890AF3EA0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA160012-9DA7-CC4E-B001-88CCEFC73BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1080" windowWidth="28040" windowHeight="15460" xr2:uid="{8C910C20-26CF-4F4C-8ECA-0074B138AB3F}"/>
+    <workbookView xWindow="6040" yWindow="500" windowWidth="28040" windowHeight="15440" xr2:uid="{8C910C20-26CF-4F4C-8ECA-0074B138AB3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8275,9 +8275,6 @@
     <t>t͡ʃʰəbɒt͡sʰen</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1SG</t>
-  </si>
-  <si>
     <t>jeɻkʰim</t>
   </si>
   <si>
@@ -8356,9 +8353,6 @@
     <t>bɒt͡sʰim</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 2SG</t>
-  </si>
-  <si>
     <t>jeɻkʰiɻ</t>
   </si>
   <si>
@@ -8437,9 +8431,6 @@
     <t>bɒt͡sʰiɻ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3SG</t>
-  </si>
-  <si>
     <t>kɒɻtʰɒɻ</t>
   </si>
   <si>
@@ -8503,9 +8494,6 @@
     <t>ləvɒnɒɻ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1PL</t>
-  </si>
-  <si>
     <t>jeɻkʰiŋkʰ</t>
   </si>
   <si>
@@ -8584,9 +8572,6 @@
     <t>bɒt͡sʰiŋkʰ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 2PL</t>
-  </si>
-  <si>
     <t>jeɻkʰikʰ</t>
   </si>
   <si>
@@ -8665,9 +8650,6 @@
     <t>bɒt͡sʰikʰ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3PL</t>
-  </si>
-  <si>
     <t>jeɻkʰin</t>
   </si>
   <si>
@@ -8746,9 +8728,6 @@
     <t>bɒt͡sʰin</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1SG</t>
-  </si>
-  <si>
     <t>t͡ʃʰəjeɻkʰim</t>
   </si>
   <si>
@@ -8827,9 +8806,6 @@
     <t>t͡ʃʰəbɒt͡sʰim</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2SG</t>
-  </si>
-  <si>
     <t>t͡ʃʰəjeɻkʰiɻ</t>
   </si>
   <si>
@@ -8908,9 +8884,6 @@
     <t>t͡ʃʰəbɒt͡sʰiɻ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3SG</t>
-  </si>
-  <si>
     <t>t͡ʃʰəjeɻkʰeɻ</t>
   </si>
   <si>
@@ -8989,9 +8962,6 @@
     <t>t͡ʃʰəbɒt͡sʰeɻ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1PL</t>
-  </si>
-  <si>
     <t>t͡ʃʰəjeɻkʰiŋkʰ</t>
   </si>
   <si>
@@ -9070,9 +9040,6 @@
     <t>t͡ʃʰəbɒt͡sʰiŋkʰ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2PL</t>
-  </si>
-  <si>
     <t>t͡ʃʰəjeɻkʰikʰ</t>
   </si>
   <si>
@@ -9151,9 +9118,6 @@
     <t>t͡ʃʰəbɒt͡sʰikʰ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3PL</t>
-  </si>
-  <si>
     <t>t͡ʃʰəjeɻkʰin</t>
   </si>
   <si>
@@ -11389,42 +11353,6 @@
     <t>negative of synthetic future 3PL</t>
   </si>
   <si>
-    <t>future in the past 1SG</t>
-  </si>
-  <si>
-    <t>future in the past 2SG</t>
-  </si>
-  <si>
-    <t>future in the past 3SG</t>
-  </si>
-  <si>
-    <t>future in the past 1PL</t>
-  </si>
-  <si>
-    <t>future in the past 2PL</t>
-  </si>
-  <si>
-    <t>future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 3PL</t>
-  </si>
-  <si>
     <t>conditional past 1SG</t>
   </si>
   <si>
@@ -11819,6 +11747,78 @@
   </si>
   <si>
     <t>kɒsin</t>
+  </si>
+  <si>
+    <t>subjunctive past 1SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 2SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 3SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 1PL</t>
+  </si>
+  <si>
+    <t>subjunctive past 2PL</t>
+  </si>
+  <si>
+    <t>subjunctive past 3PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 1SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 2SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 3SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 1PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 2PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 3PL</t>
+  </si>
+  <si>
+    <t>past future 1SG</t>
+  </si>
+  <si>
+    <t>past future 2SG</t>
+  </si>
+  <si>
+    <t>past future 3SG</t>
+  </si>
+  <si>
+    <t>past future 1PL</t>
+  </si>
+  <si>
+    <t>past future 2PL</t>
+  </si>
+  <si>
+    <t>past future 3PL</t>
+  </si>
+  <si>
+    <t>negative past future 1SG</t>
+  </si>
+  <si>
+    <t>negative past future 2SG</t>
+  </si>
+  <si>
+    <t>negative past future 3SG</t>
+  </si>
+  <si>
+    <t>negative past future 1PL</t>
+  </si>
+  <si>
+    <t>negative past future 2PL</t>
+  </si>
+  <si>
+    <t>negative past future 3PL</t>
   </si>
 </sst>
 </file>
@@ -12180,7 +12180,7 @@
   <dimension ref="A1:AD152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+      <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12535,7 +12535,7 @@
         <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>3734</v>
+        <v>3722</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>40</v>
@@ -12627,7 +12627,7 @@
         <v>67</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>3733</v>
+        <v>3721</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>68</v>
@@ -12719,7 +12719,7 @@
         <v>95</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>3735</v>
+        <v>3723</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>96</v>
@@ -13460,13 +13460,13 @@
         <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3468</v>
+        <v>3456</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3566</v>
+        <v>3554</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3567</v>
+        <v>3555</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>282</v>
@@ -13508,13 +13508,13 @@
         <v>294</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>3568</v>
+        <v>3556</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>3569</v>
+        <v>3557</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>3570</v>
+        <v>3558</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -13526,10 +13526,10 @@
         <v>296</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>3571</v>
+        <v>3559</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>3572</v>
+        <v>3560</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>297</v>
@@ -13609,7 +13609,7 @@
         <v>39</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>3734</v>
+        <v>3722</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>320</v>
@@ -13701,7 +13701,7 @@
         <v>348</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>3736</v>
+        <v>3724</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>349</v>
@@ -13787,13 +13787,13 @@
         <v>375</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>3573</v>
+        <v>3561</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>3737</v>
+        <v>3725</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>377</v>
@@ -13885,7 +13885,7 @@
         <v>405</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>3738</v>
+        <v>3726</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>406</v>
@@ -13977,7 +13977,7 @@
         <v>434</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>3739</v>
+        <v>3727</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>435</v>
@@ -14069,7 +14069,7 @@
         <v>463</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>3740</v>
+        <v>3728</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>464</v>
@@ -14161,7 +14161,7 @@
         <v>492</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>3741</v>
+        <v>3729</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>493</v>
@@ -14253,7 +14253,7 @@
         <v>521</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>3742</v>
+        <v>3730</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>522</v>
@@ -14339,13 +14339,13 @@
         <v>548</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>3574</v>
+        <v>3562</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>549</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>3743</v>
+        <v>3731</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>550</v>
@@ -14437,7 +14437,7 @@
         <v>578</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>3744</v>
+        <v>3732</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>579</v>
@@ -14529,7 +14529,7 @@
         <v>607</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>3745</v>
+        <v>3733</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>608</v>
@@ -14621,7 +14621,7 @@
         <v>636</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>3746</v>
+        <v>3734</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>637</v>
@@ -14713,7 +14713,7 @@
         <v>665</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>3747</v>
+        <v>3735</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>666</v>
@@ -14805,7 +14805,7 @@
         <v>694</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>3748</v>
+        <v>3736</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>695</v>
@@ -14897,7 +14897,7 @@
         <v>723</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>3749</v>
+        <v>3737</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>724</v>
@@ -14989,7 +14989,7 @@
         <v>752</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>3750</v>
+        <v>3738</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>753</v>
@@ -15081,7 +15081,7 @@
         <v>781</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>3751</v>
+        <v>3739</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>782</v>
@@ -15173,7 +15173,7 @@
         <v>752</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>3750</v>
+        <v>3738</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>809</v>
@@ -15265,7 +15265,7 @@
         <v>837</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>3752</v>
+        <v>3740</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>838</v>
@@ -15357,7 +15357,7 @@
         <v>866</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>3753</v>
+        <v>3741</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>867</v>
@@ -15449,7 +15449,7 @@
         <v>895</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>3754</v>
+        <v>3742</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>896</v>
@@ -15541,7 +15541,7 @@
         <v>924</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>3755</v>
+        <v>3743</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>925</v>
@@ -15633,7 +15633,7 @@
         <v>953</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>3756</v>
+        <v>3744</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>954</v>
@@ -15719,13 +15719,13 @@
         <v>980</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>3757</v>
+        <v>3745</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>3758</v>
+        <v>3746</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>3759</v>
+        <v>3747</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>981</v>
@@ -17980,85 +17980,85 @@
         <v>2234</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3685</v>
+        <v>3673</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3686</v>
+        <v>3674</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>2235</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>3686</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>3687</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="R67" s="1" t="s">
         <v>3688</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="S67" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="T67" s="1" t="s">
         <v>3690</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="U67" s="1" t="s">
         <v>3691</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="V67" s="1" t="s">
         <v>3692</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>3693</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>3694</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>3695</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>3696</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>3697</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>3698</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>3699</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>3700</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>3701</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>3702</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>3703</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>3704</v>
       </c>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1" t="s">
-        <v>3705</v>
+        <v>3693</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>3706</v>
+        <v>3694</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>3707</v>
+        <v>3695</v>
       </c>
       <c r="AC67" s="1" t="s">
         <v>2236</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>3708</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
@@ -18496,85 +18496,85 @@
         <v>2372</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3709</v>
+        <v>3697</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3710</v>
+        <v>3698</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>2373</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>3704</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>3706</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="Q73" s="1" t="s">
         <v>3711</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>3712</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="S73" s="1" t="s">
         <v>3713</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="T73" s="1" t="s">
         <v>3714</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="U73" s="1" t="s">
         <v>3715</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="V73" s="1" t="s">
         <v>3716</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>3717</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>3718</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>3719</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>3720</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>3721</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>3722</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>3723</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>3724</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>3725</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>3726</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>3727</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>3728</v>
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1" t="s">
-        <v>3729</v>
+        <v>3717</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>3730</v>
+        <v>3718</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>3731</v>
+        <v>3719</v>
       </c>
       <c r="AC73" s="1" t="s">
         <v>2374</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>3732</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
@@ -19018,13 +19018,13 @@
         <v>281</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>3468</v>
+        <v>3456</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>3566</v>
+        <v>3554</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>3567</v>
+        <v>3555</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>282</v>
@@ -19066,13 +19066,13 @@
         <v>294</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>3568</v>
+        <v>3556</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>3569</v>
+        <v>3557</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>3570</v>
+        <v>3558</v>
       </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
@@ -19084,10 +19084,10 @@
         <v>296</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>3571</v>
+        <v>3559</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>3572</v>
+        <v>3560</v>
       </c>
       <c r="AD79" s="1" t="s">
         <v>297</v>
@@ -19534,13 +19534,13 @@
         <v>2648</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>3575</v>
+        <v>3563</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>3576</v>
+        <v>3564</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3577</v>
+        <v>3565</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>2649</v>
@@ -19582,13 +19582,13 @@
         <v>2661</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>3578</v>
+        <v>3566</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>3579</v>
+        <v>3567</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>3580</v>
+        <v>3568</v>
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
@@ -19600,10 +19600,10 @@
         <v>2663</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>3581</v>
+        <v>3569</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>3582</v>
+        <v>3570</v>
       </c>
       <c r="AD85" s="1" t="s">
         <v>2664</v>
@@ -19869,179 +19869,179 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>2752</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>2755</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>2756</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="P89" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="P89" s="1" t="s">
+      <c r="Q89" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="Q89" s="1" t="s">
+      <c r="R89" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="R89" s="1" t="s">
+      <c r="S89" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="S89" s="1" t="s">
+      <c r="T89" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="T89" s="1" t="s">
+      <c r="U89" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="U89" s="1" t="s">
+      <c r="V89" s="1" t="s">
         <v>2766</v>
-      </c>
-      <c r="V89" s="1" t="s">
-        <v>2767</v>
       </c>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="AA89" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="AA89" s="1" t="s">
+      <c r="AB89" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="AB89" s="1" t="s">
+      <c r="AC89" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="AC89" s="1" t="s">
+      <c r="AD89" s="1" t="s">
         <v>2771</v>
-      </c>
-      <c r="AD89" s="1" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="N90" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="O90" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="P90" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="O90" s="1" t="s">
+      <c r="Q90" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="P90" s="1" t="s">
+      <c r="R90" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="Q90" s="1" t="s">
+      <c r="S90" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="R90" s="1" t="s">
+      <c r="T90" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="S90" s="1" t="s">
+      <c r="U90" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="T90" s="1" t="s">
+      <c r="V90" s="1" t="s">
         <v>2792</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>2793</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>2794</v>
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="AB90" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="AA90" s="1" t="s">
+      <c r="AC90" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="AB90" s="1" t="s">
+      <c r="AD90" s="1" t="s">
         <v>2797</v>
-      </c>
-      <c r="AC90" s="1" t="s">
-        <v>2798</v>
-      </c>
-      <c r="AD90" s="1" t="s">
-        <v>2799</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>2800</v>
+        <v>3906</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>226</v>
@@ -20050,61 +20050,61 @@
         <v>227</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="N91" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="O91" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="P91" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="Q91" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="R91" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="P91" s="1" t="s">
+      <c r="S91" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="Q91" s="1" t="s">
+      <c r="T91" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="R91" s="1" t="s">
+      <c r="U91" s="1" t="s">
         <v>2815</v>
       </c>
-      <c r="S91" s="1" t="s">
+      <c r="V91" s="1" t="s">
         <v>2816</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>2817</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>2818</v>
-      </c>
-      <c r="V91" s="1" t="s">
-        <v>2819</v>
       </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
@@ -20116,10 +20116,10 @@
         <v>248</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="AD91" s="1" t="s">
         <v>251</v>
@@ -20127,781 +20127,781 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>2823</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>2824</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>2826</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>2827</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>2828</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>2829</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="N92" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="O92" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="P92" s="1" t="s">
         <v>2833</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="Q92" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="R92" s="1" t="s">
         <v>2835</v>
       </c>
-      <c r="O92" s="1" t="s">
+      <c r="S92" s="1" t="s">
         <v>2836</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="T92" s="1" t="s">
         <v>2837</v>
       </c>
-      <c r="Q92" s="1" t="s">
+      <c r="U92" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="R92" s="1" t="s">
+      <c r="V92" s="1" t="s">
         <v>2839</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>2840</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>2842</v>
-      </c>
-      <c r="V92" s="1" t="s">
-        <v>2843</v>
       </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="AC92" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="AD92" s="1" t="s">
         <v>2844</v>
-      </c>
-      <c r="AA92" s="1" t="s">
-        <v>2845</v>
-      </c>
-      <c r="AB92" s="1" t="s">
-        <v>2846</v>
-      </c>
-      <c r="AC92" s="1" t="s">
-        <v>2847</v>
-      </c>
-      <c r="AD92" s="1" t="s">
-        <v>2848</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>2849</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>2850</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>2851</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>2852</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>2854</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>2855</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>2856</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="N93" s="1" t="s">
         <v>2857</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>2858</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="P93" s="1" t="s">
         <v>2859</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="Q93" s="1" t="s">
         <v>2860</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="R93" s="1" t="s">
         <v>2861</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="S93" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="T93" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="P93" s="1" t="s">
+      <c r="U93" s="1" t="s">
         <v>2864</v>
       </c>
-      <c r="Q93" s="1" t="s">
+      <c r="V93" s="1" t="s">
         <v>2865</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>2866</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>2867</v>
-      </c>
-      <c r="T93" s="1" t="s">
-        <v>2868</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>2869</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>2870</v>
       </c>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1" t="s">
-        <v>2871</v>
+        <v>2866</v>
       </c>
       <c r="AA93" s="1" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>2876</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>2877</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>2878</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>2879</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="K94" s="1" t="s">
         <v>2880</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>2881</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>2882</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>2883</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>2884</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="P94" s="1" t="s">
         <v>2885</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="Q94" s="1" t="s">
         <v>2886</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="R94" s="1" t="s">
         <v>2887</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="S94" s="1" t="s">
         <v>2888</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="T94" s="1" t="s">
         <v>2889</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="U94" s="1" t="s">
         <v>2890</v>
       </c>
-      <c r="P94" s="1" t="s">
+      <c r="V94" s="1" t="s">
         <v>2891</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>2892</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>2893</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>2894</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>2896</v>
-      </c>
-      <c r="V94" s="1" t="s">
-        <v>2897</v>
       </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1" t="s">
-        <v>2898</v>
+        <v>2892</v>
       </c>
       <c r="AA94" s="1" t="s">
-        <v>2899</v>
+        <v>2893</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>2900</v>
+        <v>2894</v>
       </c>
       <c r="AC94" s="1" t="s">
-        <v>2901</v>
+        <v>2895</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>2902</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>2903</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>2905</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>2906</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>2907</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>2908</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>2909</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>2910</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="P95" s="1" t="s">
         <v>2911</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="Q95" s="1" t="s">
         <v>2912</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="R95" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="S95" s="1" t="s">
         <v>2914</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="T95" s="1" t="s">
         <v>2915</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="U95" s="1" t="s">
         <v>2916</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="V95" s="1" t="s">
         <v>2917</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>2919</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>2920</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="T95" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="U95" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="V95" s="1" t="s">
-        <v>2924</v>
       </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1" t="s">
-        <v>2925</v>
+        <v>2918</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>2926</v>
+        <v>2919</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>2927</v>
+        <v>2920</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>2928</v>
+        <v>2921</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>2929</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>2930</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>2932</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>2933</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>2934</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>2935</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="O96" s="1" t="s">
         <v>2936</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="P96" s="1" t="s">
         <v>2937</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="Q96" s="1" t="s">
         <v>2938</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="R96" s="1" t="s">
         <v>2939</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="S96" s="1" t="s">
         <v>2940</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="T96" s="1" t="s">
         <v>2941</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="U96" s="1" t="s">
         <v>2942</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="V96" s="1" t="s">
         <v>2943</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>2944</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>2947</v>
-      </c>
-      <c r="S96" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="T96" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="U96" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="V96" s="1" t="s">
-        <v>2951</v>
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1" t="s">
-        <v>2952</v>
+        <v>2944</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>2953</v>
+        <v>2945</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>2954</v>
+        <v>2946</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>2955</v>
+        <v>2947</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>2956</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>2957</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>2958</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>2959</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>2960</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>2961</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>2962</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="P97" s="1" t="s">
         <v>2963</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="Q97" s="1" t="s">
         <v>2964</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="R97" s="1" t="s">
         <v>2965</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="S97" s="1" t="s">
         <v>2966</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="T97" s="1" t="s">
         <v>2967</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="U97" s="1" t="s">
         <v>2968</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="V97" s="1" t="s">
         <v>2969</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>2970</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>2971</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>2973</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="S97" s="1" t="s">
-        <v>2975</v>
-      </c>
-      <c r="T97" s="1" t="s">
-        <v>2976</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>2977</v>
-      </c>
-      <c r="V97" s="1" t="s">
-        <v>2978</v>
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1" t="s">
-        <v>2979</v>
+        <v>2970</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>2980</v>
+        <v>2971</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>2981</v>
+        <v>2972</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>2982</v>
+        <v>2973</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>2983</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>2984</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>2985</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>2986</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>2987</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="O98" s="1" t="s">
         <v>2988</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="P98" s="1" t="s">
         <v>2989</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="Q98" s="1" t="s">
         <v>2990</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="R98" s="1" t="s">
         <v>2991</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="S98" s="1" t="s">
         <v>2992</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="T98" s="1" t="s">
         <v>2993</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="U98" s="1" t="s">
         <v>2994</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="V98" s="1" t="s">
         <v>2995</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>2996</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>2997</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>2999</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>3000</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>3001</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>3002</v>
-      </c>
-      <c r="T98" s="1" t="s">
-        <v>3003</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>3004</v>
-      </c>
-      <c r="V98" s="1" t="s">
-        <v>3005</v>
       </c>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1" t="s">
-        <v>3006</v>
+        <v>2996</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>3007</v>
+        <v>2997</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>3008</v>
+        <v>2998</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>3009</v>
+        <v>2999</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>3010</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>3011</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>3012</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>3013</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="O99" s="1" t="s">
         <v>3014</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="P99" s="1" t="s">
         <v>3015</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="Q99" s="1" t="s">
         <v>3016</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="R99" s="1" t="s">
         <v>3017</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="S99" s="1" t="s">
         <v>3018</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="T99" s="1" t="s">
         <v>3019</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="U99" s="1" t="s">
         <v>3020</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="V99" s="1" t="s">
         <v>3021</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>3022</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>3024</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>3025</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>3026</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="R99" s="1" t="s">
-        <v>3028</v>
-      </c>
-      <c r="S99" s="1" t="s">
-        <v>3029</v>
-      </c>
-      <c r="T99" s="1" t="s">
-        <v>3030</v>
-      </c>
-      <c r="U99" s="1" t="s">
-        <v>3031</v>
-      </c>
-      <c r="V99" s="1" t="s">
-        <v>3032</v>
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1" t="s">
-        <v>3033</v>
+        <v>3022</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>3034</v>
+        <v>3023</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>3035</v>
+        <v>3024</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>3036</v>
+        <v>3025</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>3037</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="M100" s="1" t="s">
         <v>3038</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="N100" s="1" t="s">
         <v>3039</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="O100" s="1" t="s">
         <v>3040</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="P100" s="1" t="s">
         <v>3041</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="Q100" s="1" t="s">
         <v>3042</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="R100" s="1" t="s">
         <v>3043</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="S100" s="1" t="s">
         <v>3044</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="T100" s="1" t="s">
         <v>3045</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="U100" s="1" t="s">
         <v>3046</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="V100" s="1" t="s">
         <v>3047</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>3049</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>3050</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>3051</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>3052</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>3053</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>3054</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>3055</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>3056</v>
-      </c>
-      <c r="T100" s="1" t="s">
-        <v>3057</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>3058</v>
-      </c>
-      <c r="V100" s="1" t="s">
-        <v>3059</v>
       </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1" t="s">
-        <v>3060</v>
+        <v>3048</v>
       </c>
       <c r="AA100" s="1" t="s">
-        <v>3061</v>
+        <v>3049</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>3062</v>
+        <v>3050</v>
       </c>
       <c r="AC100" s="1" t="s">
-        <v>3063</v>
+        <v>3051</v>
       </c>
       <c r="AD100" s="1" t="s">
-        <v>3064</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>3467</v>
+        <v>3455</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>280</v>
@@ -20910,76 +20910,76 @@
         <v>281</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="P101" s="1" t="s">
         <v>3468</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="Q101" s="1" t="s">
         <v>3469</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="R101" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="S101" s="1" t="s">
         <v>3470</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="T101" s="1" t="s">
         <v>3471</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="U101" s="1" t="s">
         <v>3472</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="V101" s="1" t="s">
         <v>3473</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>3474</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>3475</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>3476</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>3477</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>3478</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>3479</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>3480</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>3481</v>
-      </c>
-      <c r="R101" s="1" t="s">
-        <v>2818</v>
-      </c>
-      <c r="S101" s="1" t="s">
-        <v>3482</v>
-      </c>
-      <c r="T101" s="1" t="s">
-        <v>3483</v>
-      </c>
-      <c r="U101" s="1" t="s">
-        <v>3484</v>
-      </c>
-      <c r="V101" s="1" t="s">
-        <v>3485</v>
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1" t="s">
-        <v>3486</v>
+        <v>3474</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>3487</v>
+        <v>3475</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>3488</v>
+        <v>3476</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>3489</v>
+        <v>3477</v>
       </c>
       <c r="AD101" s="1" t="s">
         <v>297</v>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>3490</v>
+        <v>3478</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>2539</v>
@@ -20996,61 +20996,61 @@
         <v>2540</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="P102" s="1" t="s">
         <v>3491</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="Q102" s="1" t="s">
         <v>3492</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="R102" s="1" t="s">
         <v>3493</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="S102" s="1" t="s">
         <v>3494</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="T102" s="1" t="s">
         <v>3495</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="U102" s="1" t="s">
         <v>3496</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="V102" s="1" t="s">
         <v>3497</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>3498</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>3499</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>3500</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>3501</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>3502</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>3503</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>3504</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>3505</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>3506</v>
-      </c>
-      <c r="T102" s="1" t="s">
-        <v>3507</v>
-      </c>
-      <c r="U102" s="1" t="s">
-        <v>3508</v>
-      </c>
-      <c r="V102" s="1" t="s">
-        <v>3509</v>
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
@@ -21062,10 +21062,10 @@
         <v>2561</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>3510</v>
+        <v>3498</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>3511</v>
+        <v>3499</v>
       </c>
       <c r="AD102" s="1" t="s">
         <v>2564</v>
@@ -21073,179 +21073,179 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="M103" s="1" t="s">
         <v>3512</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="N103" s="1" t="s">
         <v>3513</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="O103" s="1" t="s">
         <v>3514</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="P103" s="1" t="s">
         <v>3515</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="Q103" s="1" t="s">
         <v>3516</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="R103" s="1" t="s">
         <v>3517</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="S103" s="1" t="s">
         <v>3518</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="T103" s="1" t="s">
         <v>3519</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="U103" s="1" t="s">
         <v>3520</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="V103" s="1" t="s">
         <v>3521</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>3522</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>3523</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>3524</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>3525</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>3526</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>3527</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>3528</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>3529</v>
-      </c>
-      <c r="S103" s="1" t="s">
-        <v>3530</v>
-      </c>
-      <c r="T103" s="1" t="s">
-        <v>3531</v>
-      </c>
-      <c r="U103" s="1" t="s">
-        <v>3532</v>
-      </c>
-      <c r="V103" s="1" t="s">
-        <v>3533</v>
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1" t="s">
-        <v>3534</v>
+        <v>3522</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>3535</v>
+        <v>3523</v>
       </c>
       <c r="AB103" s="1" t="s">
-        <v>3536</v>
+        <v>3524</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>3537</v>
+        <v>3525</v>
       </c>
       <c r="AD103" s="1" t="s">
-        <v>3538</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>3532</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>3536</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="M104" s="1" t="s">
         <v>3539</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="N104" s="1" t="s">
         <v>3540</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="O104" s="1" t="s">
         <v>3541</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="P104" s="1" t="s">
         <v>3542</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="Q104" s="1" t="s">
         <v>3543</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="R104" s="1" t="s">
         <v>3544</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="S104" s="1" t="s">
         <v>3545</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="T104" s="1" t="s">
         <v>3546</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="U104" s="1" t="s">
         <v>3547</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="V104" s="1" t="s">
         <v>3548</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>3549</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>3550</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>3551</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>3552</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>3553</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>3554</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>3555</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>3556</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>3557</v>
-      </c>
-      <c r="T104" s="1" t="s">
-        <v>3558</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>3559</v>
-      </c>
-      <c r="V104" s="1" t="s">
-        <v>3560</v>
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1" t="s">
-        <v>3561</v>
+        <v>3549</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>3562</v>
+        <v>3550</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>3563</v>
+        <v>3551</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>3564</v>
+        <v>3552</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>3565</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>3760</v>
+        <v>3748</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>986</v>
@@ -21331,7 +21331,7 @@
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>3761</v>
+        <v>3749</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1012</v>
@@ -21417,7 +21417,7 @@
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>3762</v>
+        <v>3750</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1038</v>
@@ -21503,7 +21503,7 @@
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>3763</v>
+        <v>3751</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1064</v>
@@ -21589,7 +21589,7 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>3764</v>
+        <v>3752</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1090</v>
@@ -21675,7 +21675,7 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>3765</v>
+        <v>3753</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1116</v>
@@ -21761,7 +21761,7 @@
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>3766</v>
+        <v>3754</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1142</v>
@@ -21847,7 +21847,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>3767</v>
+        <v>3755</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1168</v>
@@ -21933,7 +21933,7 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>3768</v>
+        <v>3756</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1194</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>3769</v>
+        <v>3757</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1220</v>
@@ -22105,7 +22105,7 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>3770</v>
+        <v>3758</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1246</v>
@@ -22191,7 +22191,7 @@
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>3771</v>
+        <v>3759</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1272</v>
@@ -22277,7 +22277,7 @@
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>3784</v>
+        <v>3916</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1298</v>
@@ -22363,7 +22363,7 @@
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>3785</v>
+        <v>3917</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1324</v>
@@ -22449,7 +22449,7 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>3786</v>
+        <v>3918</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1350</v>
@@ -22535,7 +22535,7 @@
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>3787</v>
+        <v>3919</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1376</v>
@@ -22621,7 +22621,7 @@
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>3788</v>
+        <v>3920</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1402</v>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>3789</v>
+        <v>3921</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1428</v>
@@ -22793,7 +22793,7 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>3790</v>
+        <v>3922</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1454</v>
@@ -22879,7 +22879,7 @@
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>3791</v>
+        <v>3923</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1480</v>
@@ -22965,7 +22965,7 @@
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>3792</v>
+        <v>3924</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1506</v>
@@ -23051,7 +23051,7 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>3793</v>
+        <v>3925</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1532</v>
@@ -23137,7 +23137,7 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>3794</v>
+        <v>3926</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1558</v>
@@ -23223,7 +23223,7 @@
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>3795</v>
+        <v>3927</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1584</v>
@@ -23309,2066 +23309,2066 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>3772</v>
+        <v>3760</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>3065</v>
+        <v>3053</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>3808</v>
+        <v>3784</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>3066</v>
+        <v>3054</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>3067</v>
+        <v>3055</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>3809</v>
+        <v>3785</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>3068</v>
+        <v>3056</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>3810</v>
+        <v>3786</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>3069</v>
+        <v>3057</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>3811</v>
+        <v>3787</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>3070</v>
+        <v>3058</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>3812</v>
+        <v>3788</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>3071</v>
+        <v>3059</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>3813</v>
+        <v>3789</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>3072</v>
+        <v>3060</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>3814</v>
+        <v>3790</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>3815</v>
+        <v>3791</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>3073</v>
+        <v>3061</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>3074</v>
+        <v>3062</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>3816</v>
+        <v>3792</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>3075</v>
+        <v>3063</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>3076</v>
+        <v>3064</v>
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1" t="s">
-        <v>3077</v>
+        <v>3065</v>
       </c>
       <c r="AA129" s="1" t="s">
-        <v>3817</v>
+        <v>3793</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>3078</v>
+        <v>3066</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>3079</v>
+        <v>3067</v>
       </c>
       <c r="AD129" s="1" t="s">
-        <v>3080</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>3773</v>
+        <v>3761</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>3081</v>
+        <v>3069</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>3818</v>
+        <v>3794</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>3082</v>
+        <v>3070</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>3083</v>
+        <v>3071</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>3819</v>
+        <v>3795</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>3084</v>
+        <v>3072</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>3820</v>
+        <v>3796</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>3085</v>
+        <v>3073</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>3821</v>
+        <v>3797</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>3086</v>
+        <v>3074</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>3822</v>
+        <v>3798</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>3087</v>
+        <v>3075</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>3823</v>
+        <v>3799</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>3088</v>
+        <v>3076</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>3824</v>
+        <v>3800</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>3825</v>
+        <v>3801</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>3089</v>
+        <v>3077</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>3090</v>
+        <v>3078</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>3826</v>
+        <v>3802</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>3091</v>
+        <v>3079</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>3092</v>
+        <v>3080</v>
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1" t="s">
-        <v>3093</v>
+        <v>3081</v>
       </c>
       <c r="AA130" s="1" t="s">
-        <v>3827</v>
+        <v>3803</v>
       </c>
       <c r="AB130" s="1" t="s">
-        <v>3094</v>
+        <v>3082</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>3095</v>
+        <v>3083</v>
       </c>
       <c r="AD130" s="1" t="s">
-        <v>3096</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>3774</v>
+        <v>3762</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>3097</v>
+        <v>3085</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>3828</v>
+        <v>3804</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>3591</v>
+        <v>3579</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>3592</v>
+        <v>3580</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>3829</v>
+        <v>3805</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>3098</v>
+        <v>3086</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>3830</v>
+        <v>3806</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>3099</v>
+        <v>3087</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>3831</v>
+        <v>3807</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>3100</v>
+        <v>3088</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>3832</v>
+        <v>3808</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>3101</v>
+        <v>3089</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>3833</v>
+        <v>3809</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>3102</v>
+        <v>3090</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>3834</v>
+        <v>3810</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>3835</v>
+        <v>3811</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>3103</v>
+        <v>3091</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>3104</v>
+        <v>3092</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>3836</v>
+        <v>3812</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>3593</v>
+        <v>3581</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>3594</v>
+        <v>3582</v>
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1" t="s">
-        <v>3105</v>
+        <v>3093</v>
       </c>
       <c r="AA131" s="1" t="s">
-        <v>3837</v>
+        <v>3813</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>3595</v>
+        <v>3583</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>3596</v>
+        <v>3584</v>
       </c>
       <c r="AD131" s="1" t="s">
-        <v>3106</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>3775</v>
+        <v>3763</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>3107</v>
+        <v>3095</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>3838</v>
+        <v>3814</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>3108</v>
+        <v>3096</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>3109</v>
+        <v>3097</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>3839</v>
+        <v>3815</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>3110</v>
+        <v>3098</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>3840</v>
+        <v>3816</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>3111</v>
+        <v>3099</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>3841</v>
+        <v>3817</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>3112</v>
+        <v>3100</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>3842</v>
+        <v>3818</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>3113</v>
+        <v>3101</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>3843</v>
+        <v>3819</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>3114</v>
+        <v>3102</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>3844</v>
+        <v>3820</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>3845</v>
+        <v>3821</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>3115</v>
+        <v>3103</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>3116</v>
+        <v>3104</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>3846</v>
+        <v>3822</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>3117</v>
+        <v>3105</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>3118</v>
+        <v>3106</v>
       </c>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
       <c r="Z132" s="1" t="s">
-        <v>3119</v>
+        <v>3107</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>3847</v>
+        <v>3823</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>3120</v>
+        <v>3108</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>3121</v>
+        <v>3109</v>
       </c>
       <c r="AD132" s="1" t="s">
-        <v>3122</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>3776</v>
+        <v>3764</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>3123</v>
+        <v>3111</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>3848</v>
+        <v>3824</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>3124</v>
+        <v>3112</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>3125</v>
+        <v>3113</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>3849</v>
+        <v>3825</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>3126</v>
+        <v>3114</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>3850</v>
+        <v>3826</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>3127</v>
+        <v>3115</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>3851</v>
+        <v>3827</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>3128</v>
+        <v>3116</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>3852</v>
+        <v>3828</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>3129</v>
+        <v>3117</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>3853</v>
+        <v>3829</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>3130</v>
+        <v>3118</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>3854</v>
+        <v>3830</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>3855</v>
+        <v>3831</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>3131</v>
+        <v>3119</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>3132</v>
+        <v>3120</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>3856</v>
+        <v>3832</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>3133</v>
+        <v>3121</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>3134</v>
+        <v>3122</v>
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1" t="s">
-        <v>3135</v>
+        <v>3123</v>
       </c>
       <c r="AA133" s="1" t="s">
-        <v>3857</v>
+        <v>3833</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>3136</v>
+        <v>3124</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>3137</v>
+        <v>3125</v>
       </c>
       <c r="AD133" s="1" t="s">
-        <v>3138</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>3777</v>
+        <v>3765</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>3139</v>
+        <v>3127</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>3858</v>
+        <v>3834</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>3140</v>
+        <v>3128</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>3141</v>
+        <v>3129</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>3859</v>
+        <v>3835</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>3142</v>
+        <v>3130</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>3860</v>
+        <v>3836</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>3143</v>
+        <v>3131</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>3861</v>
+        <v>3837</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>3144</v>
+        <v>3132</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>3862</v>
+        <v>3838</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>3145</v>
+        <v>3133</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>3863</v>
+        <v>3839</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>3146</v>
+        <v>3134</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>3864</v>
+        <v>3840</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>3865</v>
+        <v>3841</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>3147</v>
+        <v>3135</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>3148</v>
+        <v>3136</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>3866</v>
+        <v>3842</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>3149</v>
+        <v>3137</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>3150</v>
+        <v>3138</v>
       </c>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1" t="s">
-        <v>3151</v>
+        <v>3139</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>3867</v>
+        <v>3843</v>
       </c>
       <c r="AB134" s="1" t="s">
-        <v>3152</v>
+        <v>3140</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>3153</v>
+        <v>3141</v>
       </c>
       <c r="AD134" s="1" t="s">
-        <v>3154</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>3778</v>
+        <v>3766</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="Q135" s="1" t="s">
         <v>3155</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="R135" s="1" t="s">
         <v>3156</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>3645</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>3646</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>3647</v>
-      </c>
-      <c r="G135" s="1" t="s">
+      <c r="S135" s="1" t="s">
         <v>3157</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>3158</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>3159</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>3160</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>3161</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>3162</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>3163</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>3164</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>3166</v>
-      </c>
-      <c r="Q135" s="1" t="s">
-        <v>3167</v>
-      </c>
-      <c r="R135" s="1" t="s">
-        <v>3168</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>3169</v>
-      </c>
       <c r="T135" s="1" t="s">
-        <v>3648</v>
+        <v>3636</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>3649</v>
+        <v>3637</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>3650</v>
+        <v>3638</v>
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1" t="s">
-        <v>3170</v>
+        <v>3158</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>3171</v>
+        <v>3159</v>
       </c>
       <c r="AB135" s="1" t="s">
-        <v>3651</v>
+        <v>3639</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>3652</v>
+        <v>3640</v>
       </c>
       <c r="AD135" s="1" t="s">
-        <v>3172</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>3779</v>
+        <v>3767</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>3642</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="Q136" s="1" t="s">
         <v>3173</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="R136" s="1" t="s">
         <v>3174</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>3653</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>3654</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>3655</v>
-      </c>
-      <c r="G136" s="1" t="s">
+      <c r="S136" s="1" t="s">
         <v>3175</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>3176</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>3177</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>3178</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>3180</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>3181</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>3182</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>3183</v>
-      </c>
-      <c r="P136" s="1" t="s">
-        <v>3184</v>
-      </c>
-      <c r="Q136" s="1" t="s">
-        <v>3185</v>
-      </c>
-      <c r="R136" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="S136" s="1" t="s">
-        <v>3187</v>
-      </c>
       <c r="T136" s="1" t="s">
-        <v>3656</v>
+        <v>3644</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>3657</v>
+        <v>3645</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>3658</v>
+        <v>3646</v>
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1" t="s">
-        <v>3188</v>
+        <v>3176</v>
       </c>
       <c r="AA136" s="1" t="s">
-        <v>3189</v>
+        <v>3177</v>
       </c>
       <c r="AB136" s="1" t="s">
-        <v>3659</v>
+        <v>3647</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>3660</v>
+        <v>3648</v>
       </c>
       <c r="AD136" s="1" t="s">
-        <v>3190</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>3780</v>
+        <v>3768</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>3572</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>3184</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="Q137" s="1" t="s">
         <v>3191</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="R137" s="1" t="s">
         <v>3192</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>3583</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>3584</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>3585</v>
-      </c>
-      <c r="G137" s="1" t="s">
+      <c r="S137" s="1" t="s">
         <v>3193</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>3195</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>3196</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>3197</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>3198</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>3199</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>3200</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>3201</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>3202</v>
-      </c>
-      <c r="Q137" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="R137" s="1" t="s">
-        <v>3204</v>
-      </c>
-      <c r="S137" s="1" t="s">
-        <v>3205</v>
-      </c>
       <c r="T137" s="1" t="s">
-        <v>3586</v>
+        <v>3574</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>3587</v>
+        <v>3575</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>3588</v>
+        <v>3576</v>
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1" t="s">
-        <v>3206</v>
+        <v>3194</v>
       </c>
       <c r="AA137" s="1" t="s">
-        <v>3207</v>
+        <v>3195</v>
       </c>
       <c r="AB137" s="1" t="s">
-        <v>3589</v>
+        <v>3577</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>3590</v>
+        <v>3578</v>
       </c>
       <c r="AD137" s="1" t="s">
-        <v>3208</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>3781</v>
+        <v>3769</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="Q138" s="1" t="s">
         <v>3209</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="R138" s="1" t="s">
         <v>3210</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>3661</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>3662</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>3663</v>
-      </c>
-      <c r="G138" s="1" t="s">
+      <c r="S138" s="1" t="s">
         <v>3211</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>3212</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>3213</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>3214</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>3215</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>3216</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>3217</v>
-      </c>
-      <c r="N138" s="1" t="s">
-        <v>3218</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>3220</v>
-      </c>
-      <c r="Q138" s="1" t="s">
-        <v>3221</v>
-      </c>
-      <c r="R138" s="1" t="s">
-        <v>3222</v>
-      </c>
-      <c r="S138" s="1" t="s">
-        <v>3223</v>
-      </c>
       <c r="T138" s="1" t="s">
-        <v>3664</v>
+        <v>3652</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>3665</v>
+        <v>3653</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>3666</v>
+        <v>3654</v>
       </c>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1" t="s">
-        <v>3224</v>
+        <v>3212</v>
       </c>
       <c r="AA138" s="1" t="s">
-        <v>3225</v>
+        <v>3213</v>
       </c>
       <c r="AB138" s="1" t="s">
-        <v>3667</v>
+        <v>3655</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>3668</v>
+        <v>3656</v>
       </c>
       <c r="AD138" s="1" t="s">
-        <v>3226</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>3782</v>
+        <v>3770</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="Q139" s="1" t="s">
         <v>3227</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="R139" s="1" t="s">
         <v>3228</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>3669</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>3670</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>3671</v>
-      </c>
-      <c r="G139" s="1" t="s">
+      <c r="S139" s="1" t="s">
         <v>3229</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>3230</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>3231</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>3232</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>3234</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>3235</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>3236</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>3237</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>3238</v>
-      </c>
-      <c r="Q139" s="1" t="s">
-        <v>3239</v>
-      </c>
-      <c r="R139" s="1" t="s">
-        <v>3240</v>
-      </c>
-      <c r="S139" s="1" t="s">
-        <v>3241</v>
-      </c>
       <c r="T139" s="1" t="s">
-        <v>3672</v>
+        <v>3660</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>3673</v>
+        <v>3661</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>3674</v>
+        <v>3662</v>
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1" t="s">
-        <v>3242</v>
+        <v>3230</v>
       </c>
       <c r="AA139" s="1" t="s">
-        <v>3243</v>
+        <v>3231</v>
       </c>
       <c r="AB139" s="1" t="s">
-        <v>3675</v>
+        <v>3663</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>3676</v>
+        <v>3664</v>
       </c>
       <c r="AD139" s="1" t="s">
-        <v>3244</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>3783</v>
+        <v>3771</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="Q140" s="1" t="s">
         <v>3245</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="R140" s="1" t="s">
         <v>3246</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>3677</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>3678</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>3679</v>
-      </c>
-      <c r="G140" s="1" t="s">
+      <c r="S140" s="1" t="s">
         <v>3247</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>3248</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>3249</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>3250</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>3252</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>3253</v>
-      </c>
-      <c r="N140" s="1" t="s">
-        <v>3254</v>
-      </c>
-      <c r="O140" s="1" t="s">
-        <v>3255</v>
-      </c>
-      <c r="P140" s="1" t="s">
-        <v>3256</v>
-      </c>
-      <c r="Q140" s="1" t="s">
-        <v>3257</v>
-      </c>
-      <c r="R140" s="1" t="s">
-        <v>3258</v>
-      </c>
-      <c r="S140" s="1" t="s">
-        <v>3259</v>
-      </c>
       <c r="T140" s="1" t="s">
-        <v>3680</v>
+        <v>3668</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>3681</v>
+        <v>3669</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>3682</v>
+        <v>3670</v>
       </c>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1" t="s">
-        <v>3260</v>
+        <v>3248</v>
       </c>
       <c r="AA140" s="1" t="s">
-        <v>3261</v>
+        <v>3249</v>
       </c>
       <c r="AB140" s="1" t="s">
-        <v>3683</v>
+        <v>3671</v>
       </c>
       <c r="AC140" s="1" t="s">
-        <v>3684</v>
+        <v>3672</v>
       </c>
       <c r="AD140" s="1" t="s">
-        <v>3262</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>3796</v>
+        <v>3772</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3263</v>
+        <v>3251</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>3868</v>
+        <v>3844</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>3264</v>
+        <v>3252</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>3265</v>
+        <v>3253</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>3869</v>
+        <v>3845</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>3266</v>
+        <v>3254</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>3870</v>
+        <v>3846</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>3267</v>
+        <v>3255</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>3871</v>
+        <v>3847</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>3268</v>
+        <v>3256</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>3872</v>
+        <v>3848</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>3269</v>
+        <v>3257</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>3873</v>
+        <v>3849</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>3270</v>
+        <v>3258</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>3874</v>
+        <v>3850</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>3875</v>
+        <v>3851</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>3271</v>
+        <v>3259</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>3272</v>
+        <v>3260</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>3876</v>
+        <v>3852</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>3273</v>
+        <v>3261</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>3274</v>
+        <v>3262</v>
       </c>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1" t="s">
-        <v>3275</v>
+        <v>3263</v>
       </c>
       <c r="AA141" s="1" t="s">
-        <v>3877</v>
+        <v>3853</v>
       </c>
       <c r="AB141" s="1" t="s">
-        <v>3276</v>
+        <v>3264</v>
       </c>
       <c r="AC141" s="1" t="s">
-        <v>3277</v>
+        <v>3265</v>
       </c>
       <c r="AD141" s="1" t="s">
-        <v>3278</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>3797</v>
+        <v>3773</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>3279</v>
+        <v>3267</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>3878</v>
+        <v>3854</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>3280</v>
+        <v>3268</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>3281</v>
+        <v>3269</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>3879</v>
+        <v>3855</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>3282</v>
+        <v>3270</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>3880</v>
+        <v>3856</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>3283</v>
+        <v>3271</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>3881</v>
+        <v>3857</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>3284</v>
+        <v>3272</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>3882</v>
+        <v>3858</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>3285</v>
+        <v>3273</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>3883</v>
+        <v>3859</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>3286</v>
+        <v>3274</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>3884</v>
+        <v>3860</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>3885</v>
+        <v>3861</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>3287</v>
+        <v>3275</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>3288</v>
+        <v>3276</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>3886</v>
+        <v>3862</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>3289</v>
+        <v>3277</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>3290</v>
+        <v>3278</v>
       </c>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="Z142" s="1" t="s">
-        <v>3291</v>
+        <v>3279</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>3887</v>
+        <v>3863</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>3292</v>
+        <v>3280</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>3293</v>
+        <v>3281</v>
       </c>
       <c r="AD142" s="1" t="s">
-        <v>3294</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>3798</v>
+        <v>3774</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>3295</v>
+        <v>3283</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>3888</v>
+        <v>3864</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>3296</v>
+        <v>3284</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>3297</v>
+        <v>3285</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>3889</v>
+        <v>3865</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>3890</v>
+        <v>3866</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>3891</v>
+        <v>3867</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>3300</v>
+        <v>3288</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>3892</v>
+        <v>3868</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>3301</v>
+        <v>3289</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>3893</v>
+        <v>3869</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>3302</v>
+        <v>3290</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>3894</v>
+        <v>3870</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>3895</v>
+        <v>3871</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>3303</v>
+        <v>3291</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>3304</v>
+        <v>3292</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>3896</v>
+        <v>3872</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>3305</v>
+        <v>3293</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>3306</v>
+        <v>3294</v>
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1" t="s">
-        <v>3307</v>
+        <v>3295</v>
       </c>
       <c r="AA143" s="1" t="s">
-        <v>3897</v>
+        <v>3873</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>3308</v>
+        <v>3296</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="AD143" s="1" t="s">
-        <v>3310</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>3799</v>
+        <v>3775</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>3311</v>
+        <v>3299</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>3898</v>
+        <v>3874</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>3899</v>
+        <v>3875</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>3900</v>
+        <v>3876</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>3315</v>
+        <v>3303</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>3901</v>
+        <v>3877</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>3316</v>
+        <v>3304</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>3902</v>
+        <v>3878</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>3317</v>
+        <v>3305</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>3903</v>
+        <v>3879</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>3318</v>
+        <v>3306</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>3904</v>
+        <v>3880</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>3905</v>
+        <v>3881</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>3319</v>
+        <v>3307</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>3320</v>
+        <v>3308</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>3906</v>
+        <v>3882</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>3321</v>
+        <v>3309</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>3322</v>
+        <v>3310</v>
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
       <c r="Z144" s="1" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="AA144" s="1" t="s">
-        <v>3907</v>
+        <v>3883</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>3324</v>
+        <v>3312</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AD144" s="1" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>3800</v>
+        <v>3776</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>3908</v>
+        <v>3884</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>3328</v>
+        <v>3316</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>3329</v>
+        <v>3317</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>3909</v>
+        <v>3885</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>3330</v>
+        <v>3318</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>3910</v>
+        <v>3886</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>3331</v>
+        <v>3319</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>3911</v>
+        <v>3887</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>3332</v>
+        <v>3320</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>3912</v>
+        <v>3888</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>3333</v>
+        <v>3321</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>3913</v>
+        <v>3889</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>3334</v>
+        <v>3322</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>3914</v>
+        <v>3890</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>3915</v>
+        <v>3891</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>3335</v>
+        <v>3323</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>3336</v>
+        <v>3324</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>3916</v>
+        <v>3892</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>3337</v>
+        <v>3325</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>3338</v>
+        <v>3326</v>
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1" t="s">
-        <v>3339</v>
+        <v>3327</v>
       </c>
       <c r="AA145" s="1" t="s">
-        <v>3917</v>
+        <v>3893</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>3340</v>
+        <v>3328</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>3341</v>
+        <v>3329</v>
       </c>
       <c r="AD145" s="1" t="s">
-        <v>3342</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>3801</v>
+        <v>3777</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>3343</v>
+        <v>3331</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>3918</v>
+        <v>3894</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>3344</v>
+        <v>3332</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>3345</v>
+        <v>3333</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>3919</v>
+        <v>3895</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>3346</v>
+        <v>3334</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>3920</v>
+        <v>3896</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>3347</v>
+        <v>3335</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>3921</v>
+        <v>3897</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>3348</v>
+        <v>3336</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>3922</v>
+        <v>3898</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>3349</v>
+        <v>3337</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>3923</v>
+        <v>3899</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>3350</v>
+        <v>3338</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>3924</v>
+        <v>3900</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>3925</v>
+        <v>3901</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>3351</v>
+        <v>3339</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>3352</v>
+        <v>3340</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>3926</v>
+        <v>3902</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>3353</v>
+        <v>3341</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>3354</v>
+        <v>3342</v>
       </c>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
       <c r="Z146" s="1" t="s">
-        <v>3355</v>
+        <v>3343</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>3927</v>
+        <v>3903</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>3356</v>
+        <v>3344</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>3357</v>
+        <v>3345</v>
       </c>
       <c r="AD146" s="1" t="s">
-        <v>3358</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>3802</v>
+        <v>3778</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>3586</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>3355</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="Q147" s="1" t="s">
         <v>3359</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="R147" s="1" t="s">
         <v>3360</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>3597</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>3598</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>3599</v>
-      </c>
-      <c r="G147" s="1" t="s">
+      <c r="S147" s="1" t="s">
         <v>3361</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>3362</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>3363</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>3365</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>3366</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>3367</v>
-      </c>
-      <c r="N147" s="1" t="s">
-        <v>3368</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>3369</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>3370</v>
-      </c>
-      <c r="Q147" s="1" t="s">
-        <v>3371</v>
-      </c>
-      <c r="R147" s="1" t="s">
-        <v>3372</v>
-      </c>
-      <c r="S147" s="1" t="s">
-        <v>3373</v>
-      </c>
       <c r="T147" s="1" t="s">
-        <v>3600</v>
+        <v>3588</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>3601</v>
+        <v>3589</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>3602</v>
+        <v>3590</v>
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1" t="s">
-        <v>3374</v>
+        <v>3362</v>
       </c>
       <c r="AA147" s="1" t="s">
-        <v>3375</v>
+        <v>3363</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>3603</v>
+        <v>3591</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>3604</v>
+        <v>3592</v>
       </c>
       <c r="AD147" s="1" t="s">
-        <v>3376</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>3803</v>
+        <v>3779</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>3594</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="Q148" s="1" t="s">
         <v>3377</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="R148" s="1" t="s">
         <v>3378</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>3605</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>3606</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>3607</v>
-      </c>
-      <c r="G148" s="1" t="s">
+      <c r="S148" s="1" t="s">
         <v>3379</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>3380</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>3381</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>3382</v>
-      </c>
-      <c r="K148" s="1" t="s">
-        <v>3383</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>3384</v>
-      </c>
-      <c r="M148" s="1" t="s">
-        <v>3385</v>
-      </c>
-      <c r="N148" s="1" t="s">
-        <v>3386</v>
-      </c>
-      <c r="O148" s="1" t="s">
-        <v>3387</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q148" s="1" t="s">
-        <v>3389</v>
-      </c>
-      <c r="R148" s="1" t="s">
-        <v>3390</v>
-      </c>
-      <c r="S148" s="1" t="s">
-        <v>3391</v>
-      </c>
       <c r="T148" s="1" t="s">
-        <v>3608</v>
+        <v>3596</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>3609</v>
+        <v>3597</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>3610</v>
+        <v>3598</v>
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
       <c r="Z148" s="1" t="s">
-        <v>3392</v>
+        <v>3380</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>3393</v>
+        <v>3381</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>3611</v>
+        <v>3599</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>3612</v>
+        <v>3600</v>
       </c>
       <c r="AD148" s="1" t="s">
-        <v>3394</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>3804</v>
+        <v>3780</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>3601</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="Q149" s="1" t="s">
         <v>3395</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="R149" s="1" t="s">
         <v>3396</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>3613</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>3614</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>3615</v>
-      </c>
-      <c r="G149" s="1" t="s">
+      <c r="S149" s="1" t="s">
         <v>3397</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>3399</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>3400</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>3401</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>3402</v>
-      </c>
-      <c r="M149" s="1" t="s">
-        <v>3403</v>
-      </c>
-      <c r="N149" s="1" t="s">
-        <v>3404</v>
-      </c>
-      <c r="O149" s="1" t="s">
-        <v>3405</v>
-      </c>
-      <c r="P149" s="1" t="s">
-        <v>3406</v>
-      </c>
-      <c r="Q149" s="1" t="s">
-        <v>3407</v>
-      </c>
-      <c r="R149" s="1" t="s">
-        <v>3408</v>
-      </c>
-      <c r="S149" s="1" t="s">
-        <v>3409</v>
-      </c>
       <c r="T149" s="1" t="s">
-        <v>3616</v>
+        <v>3604</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>3617</v>
+        <v>3605</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>3618</v>
+        <v>3606</v>
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1" t="s">
-        <v>3410</v>
+        <v>3398</v>
       </c>
       <c r="AA149" s="1" t="s">
-        <v>3411</v>
+        <v>3399</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>3619</v>
+        <v>3607</v>
       </c>
       <c r="AC149" s="1" t="s">
-        <v>3620</v>
+        <v>3608</v>
       </c>
       <c r="AD149" s="1" t="s">
-        <v>3412</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>3805</v>
+        <v>3781</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>3610</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>3409</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="Q150" s="1" t="s">
         <v>3413</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="R150" s="1" t="s">
         <v>3414</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>3621</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>3622</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>3623</v>
-      </c>
-      <c r="G150" s="1" t="s">
+      <c r="S150" s="1" t="s">
         <v>3415</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>3416</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>3417</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>3418</v>
-      </c>
-      <c r="K150" s="1" t="s">
-        <v>3419</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>3420</v>
-      </c>
-      <c r="M150" s="1" t="s">
-        <v>3421</v>
-      </c>
-      <c r="N150" s="1" t="s">
-        <v>3422</v>
-      </c>
-      <c r="O150" s="1" t="s">
-        <v>3423</v>
-      </c>
-      <c r="P150" s="1" t="s">
-        <v>3424</v>
-      </c>
-      <c r="Q150" s="1" t="s">
-        <v>3425</v>
-      </c>
-      <c r="R150" s="1" t="s">
-        <v>3426</v>
-      </c>
-      <c r="S150" s="1" t="s">
-        <v>3427</v>
-      </c>
       <c r="T150" s="1" t="s">
-        <v>3624</v>
+        <v>3612</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>3625</v>
+        <v>3613</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>3626</v>
+        <v>3614</v>
       </c>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
       <c r="Z150" s="1" t="s">
-        <v>3428</v>
+        <v>3416</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>3429</v>
+        <v>3417</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>3627</v>
+        <v>3615</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>3628</v>
+        <v>3616</v>
       </c>
       <c r="AD150" s="1" t="s">
-        <v>3430</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>3806</v>
+        <v>3782</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>3617</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>3618</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="Q151" s="1" t="s">
         <v>3431</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="R151" s="1" t="s">
         <v>3432</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>3629</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>3630</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>3631</v>
-      </c>
-      <c r="G151" s="1" t="s">
+      <c r="S151" s="1" t="s">
         <v>3433</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>3434</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>3435</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>3436</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>3437</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>3438</v>
-      </c>
-      <c r="M151" s="1" t="s">
-        <v>3439</v>
-      </c>
-      <c r="N151" s="1" t="s">
-        <v>3440</v>
-      </c>
-      <c r="O151" s="1" t="s">
-        <v>3441</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>3442</v>
-      </c>
-      <c r="Q151" s="1" t="s">
-        <v>3443</v>
-      </c>
-      <c r="R151" s="1" t="s">
-        <v>3444</v>
-      </c>
-      <c r="S151" s="1" t="s">
-        <v>3445</v>
-      </c>
       <c r="T151" s="1" t="s">
-        <v>3632</v>
+        <v>3620</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>3633</v>
+        <v>3621</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>3634</v>
+        <v>3622</v>
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1" t="s">
-        <v>3446</v>
+        <v>3434</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>3447</v>
+        <v>3435</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>3635</v>
+        <v>3623</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>3636</v>
+        <v>3624</v>
       </c>
       <c r="AD151" s="1" t="s">
-        <v>3448</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>3807</v>
+        <v>3783</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>3625</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="Q152" s="1" t="s">
         <v>3449</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="R152" s="1" t="s">
         <v>3450</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>3637</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>3638</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>3639</v>
-      </c>
-      <c r="G152" s="1" t="s">
+      <c r="S152" s="1" t="s">
         <v>3451</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>3452</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>3453</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>3454</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>3455</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>3456</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>3457</v>
-      </c>
-      <c r="N152" s="1" t="s">
-        <v>3458</v>
-      </c>
-      <c r="O152" s="1" t="s">
-        <v>3459</v>
-      </c>
-      <c r="P152" s="1" t="s">
-        <v>3460</v>
-      </c>
-      <c r="Q152" s="1" t="s">
-        <v>3461</v>
-      </c>
-      <c r="R152" s="1" t="s">
-        <v>3462</v>
-      </c>
-      <c r="S152" s="1" t="s">
-        <v>3463</v>
-      </c>
       <c r="T152" s="1" t="s">
-        <v>3640</v>
+        <v>3628</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>3641</v>
+        <v>3629</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>3642</v>
+        <v>3630</v>
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1" t="s">
-        <v>3464</v>
+        <v>3452</v>
       </c>
       <c r="AA152" s="1" t="s">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="AB152" s="1" t="s">
-        <v>3643</v>
+        <v>3631</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>3644</v>
+        <v>3632</v>
       </c>
       <c r="AD152" s="1" t="s">
-        <v>3466</v>
+        <v>3454</v>
       </c>
     </row>
   </sheetData>
